--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>current affairs</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Chapter 1--&gt;5th- 10th</t>
   </si>
   <si>
-    <t xml:space="preserve">chapter 2--&gt;6th - 9th </t>
-  </si>
-  <si>
     <t>Chapter 2 --&gt; 5th-7th</t>
   </si>
   <si>
@@ -121,6 +118,12 @@
   </si>
   <si>
     <t>office work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chapter 2--&gt;6th - 10th </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chapter 3--&gt;11th - 13th </t>
   </si>
 </sst>
 </file>
@@ -632,7 +635,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -651,7 +654,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>3</v>
@@ -698,23 +701,23 @@
         <v>13</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
@@ -723,7 +726,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>8</v>
@@ -732,10 +735,10 @@
         <v>14</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
@@ -745,7 +748,7 @@
     <row r="4" spans="1:14" ht="30">
       <c r="A4" s="5"/>
       <c r="B4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>15</v>
@@ -762,7 +765,7 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -773,20 +776,20 @@
     <row r="5" spans="1:14" ht="30">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="22"/>
       <c r="F5" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -794,14 +797,16 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" ht="30">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="23"/>
       <c r="F6" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>current affairs</t>
   </si>
@@ -72,9 +72,6 @@
     <t xml:space="preserve">Chapter 1--&gt;4th </t>
   </si>
   <si>
-    <t>Chapter 1--&gt;5th- 10th</t>
-  </si>
-  <si>
     <t>Chapter 2 --&gt; 5th-7th</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>https://unacademy.com/lesson/3rd-april-2017-daily-mcqs-on-current-affairs-for-government-exams-upsc-cseias-exam/CPZHFQM3</t>
   </si>
   <si>
-    <t>Chapter 3--&gt;8th-10th</t>
-  </si>
-  <si>
     <t>office work</t>
   </si>
   <si>
@@ -124,6 +118,21 @@
   </si>
   <si>
     <t xml:space="preserve">chapter 3--&gt;11th - 13th </t>
+  </si>
+  <si>
+    <t>Chapter 2--&gt;9th</t>
+  </si>
+  <si>
+    <t>Chapter 3--&gt;10th-11th</t>
+  </si>
+  <si>
+    <t>Not started</t>
+  </si>
+  <si>
+    <t>Chapter 1</t>
+  </si>
+  <si>
+    <t>Chapter 3--&gt;9th-10th</t>
   </si>
 </sst>
 </file>
@@ -166,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,8 +206,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -284,6 +305,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -292,7 +324,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -311,7 +343,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -329,12 +360,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -632,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -646,15 +695,15 @@
     <col min="5" max="5" width="15" style="1" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
-    <col min="11" max="12" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:13">
       <c r="A1" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>3</v>
@@ -665,7 +714,7 @@
       <c r="D1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -674,15 +723,14 @@
       <c r="G1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="23"/>
       <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -690,593 +738,464 @@
       <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="13" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="H2" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="L2" s="23"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14">
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="E3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="L3" s="3"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="23"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" ht="30">
+    </row>
+    <row r="4" spans="1:13" ht="30">
       <c r="A4" s="5"/>
-      <c r="B4" s="10" t="s">
-        <v>30</v>
+      <c r="B4" s="28" t="s">
+        <v>29</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="15" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="23"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" ht="30">
+      <c r="A5" s="3"/>
+      <c r="B5" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" ht="30">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="17" t="s">
-        <v>19</v>
-      </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="H5" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="23"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" ht="30">
+    </row>
+    <row r="6" spans="1:13" ht="30">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="23"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14">
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="3"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="30"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="I7" s="26"/>
+      <c r="L7" s="23"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14">
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="I8" s="26"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14">
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="I9" s="26"/>
+      <c r="L9" s="23"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14">
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="I10" s="26"/>
+      <c r="L10" s="23"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14">
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="I11" s="26"/>
+      <c r="L11" s="23"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14">
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="I12" s="26"/>
+      <c r="L12" s="23"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14">
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="G13" s="5"/>
+      <c r="I13" s="26"/>
+      <c r="L13" s="23"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14">
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="I14" s="26"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14">
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="I15" s="26"/>
+      <c r="L15" s="23"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14">
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="I16" s="26"/>
+      <c r="L16" s="23"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14">
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="I17" s="26"/>
+      <c r="L17" s="23"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14">
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="I18" s="26"/>
+      <c r="L18" s="23"/>
       <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14">
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+      <c r="I19" s="26"/>
+      <c r="L19" s="23"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14">
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
+      <c r="I20" s="26"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14">
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
+      <c r="I21" s="26"/>
+      <c r="L21" s="23"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14">
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
+      <c r="I22" s="26"/>
+      <c r="L22" s="23"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14">
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
+      <c r="I23" s="26"/>
+      <c r="L23" s="23"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14">
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
+      <c r="I24" s="26"/>
+      <c r="L24" s="23"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14">
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
+      <c r="I25" s="26"/>
+      <c r="L25" s="23"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14">
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
+      <c r="I26" s="26"/>
+      <c r="L26" s="23"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14">
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
+      <c r="I27" s="26"/>
+      <c r="L27" s="23"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14">
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
+      <c r="I28" s="26"/>
+      <c r="L28" s="23"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14">
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
+      <c r="I29" s="26"/>
+      <c r="L29" s="23"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14">
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
+      <c r="I30" s="26"/>
+      <c r="L30" s="23"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14">
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
+      <c r="I31" s="26"/>
+      <c r="L31" s="23"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14">
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="I32" s="26"/>
+      <c r="L32" s="23"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14">
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
+      <c r="I33" s="26"/>
+      <c r="L33" s="23"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14">
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
+      <c r="I34" s="26"/>
+      <c r="L34" s="23"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14">
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
+      <c r="I35" s="26"/>
+      <c r="L35" s="23"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14">
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
+      <c r="I36" s="26"/>
+      <c r="L36" s="23"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E3:E6"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>current affairs</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Chapter 3--&gt;9th-10th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chapter 4--&gt;11th - 13th </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chapter 4--&gt;12th - 13th </t>
   </si>
 </sst>
 </file>
@@ -175,7 +181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,12 +218,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -324,7 +324,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -361,12 +361,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -374,17 +368,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -684,7 +681,7 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -723,11 +720,11 @@
       <c r="G1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="26"/>
+      <c r="I1" s="24"/>
       <c r="J1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="23"/>
+      <c r="L1" s="21"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13">
@@ -748,20 +745,20 @@
       <c r="G2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="23" t="s">
         <v>26</v>
       </c>
       <c r="J2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="23"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -770,7 +767,7 @@
       <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="27" t="s">
         <v>31</v>
       </c>
       <c r="F3" s="14" t="s">
@@ -782,16 +779,16 @@
       <c r="H3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="26"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="23"/>
+      <c r="L3" s="21"/>
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13" ht="30">
       <c r="A4" s="5"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="25" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -800,44 +797,44 @@
       <c r="D4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="27"/>
       <c r="F4" s="15" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="22" t="s">
         <v>34</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="23"/>
+      <c r="L4" s="21"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="30">
       <c r="A5" s="3"/>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="11"/>
-      <c r="E5" s="20"/>
+      <c r="E5" s="27"/>
       <c r="F5" s="16" t="s">
         <v>18</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="29" t="s">
         <v>35</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="23"/>
+      <c r="L5" s="21"/>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="30">
@@ -847,28 +844,33 @@
         <v>33</v>
       </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="20" t="s">
         <v>38</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="I6" s="26"/>
+      <c r="H6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="24"/>
       <c r="J6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="23"/>
+      <c r="L6" s="21"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" ht="30">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="17"/>
-      <c r="F7" s="30"/>
+      <c r="F7" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="G7" s="3"/>
-      <c r="I7" s="26"/>
-      <c r="L7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="L7" s="21"/>
       <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13">
@@ -878,8 +880,8 @@
       <c r="D8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
-      <c r="I8" s="26"/>
-      <c r="L8" s="23"/>
+      <c r="I8" s="24"/>
+      <c r="L8" s="21"/>
       <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13">
@@ -889,8 +891,8 @@
       <c r="D9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="I9" s="26"/>
-      <c r="L9" s="23"/>
+      <c r="I9" s="24"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13">
@@ -900,8 +902,8 @@
       <c r="D10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="I10" s="26"/>
-      <c r="L10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="L10" s="21"/>
       <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13">
@@ -911,8 +913,8 @@
       <c r="D11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="I11" s="26"/>
-      <c r="L11" s="23"/>
+      <c r="I11" s="24"/>
+      <c r="L11" s="21"/>
       <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13">
@@ -922,8 +924,8 @@
       <c r="D12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="I12" s="26"/>
-      <c r="L12" s="23"/>
+      <c r="I12" s="24"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13">
@@ -933,8 +935,8 @@
       <c r="D13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="5"/>
-      <c r="I13" s="26"/>
-      <c r="L13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13">
@@ -944,8 +946,8 @@
       <c r="D14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="I14" s="26"/>
-      <c r="L14" s="23"/>
+      <c r="I14" s="24"/>
+      <c r="L14" s="21"/>
       <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13">
@@ -955,8 +957,8 @@
       <c r="D15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="I15" s="26"/>
-      <c r="L15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13">
@@ -966,8 +968,8 @@
       <c r="D16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="I16" s="26"/>
-      <c r="L16" s="23"/>
+      <c r="I16" s="24"/>
+      <c r="L16" s="21"/>
       <c r="M16" s="3"/>
     </row>
     <row r="17" spans="1:13">
@@ -977,8 +979,8 @@
       <c r="D17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="I17" s="26"/>
-      <c r="L17" s="23"/>
+      <c r="I17" s="24"/>
+      <c r="L17" s="21"/>
       <c r="M17" s="3"/>
     </row>
     <row r="18" spans="1:13">
@@ -988,8 +990,8 @@
       <c r="D18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="I18" s="26"/>
-      <c r="L18" s="23"/>
+      <c r="I18" s="24"/>
+      <c r="L18" s="21"/>
       <c r="M18" s="3"/>
     </row>
     <row r="19" spans="1:13">
@@ -999,8 +1001,8 @@
       <c r="D19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="I19" s="26"/>
-      <c r="L19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="L19" s="21"/>
       <c r="M19" s="3"/>
     </row>
     <row r="20" spans="1:13">
@@ -1010,8 +1012,8 @@
       <c r="D20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="I20" s="26"/>
-      <c r="L20" s="23"/>
+      <c r="I20" s="24"/>
+      <c r="L20" s="21"/>
       <c r="M20" s="3"/>
     </row>
     <row r="21" spans="1:13">
@@ -1021,8 +1023,8 @@
       <c r="D21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="I21" s="26"/>
-      <c r="L21" s="23"/>
+      <c r="I21" s="24"/>
+      <c r="L21" s="21"/>
       <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13">
@@ -1032,8 +1034,8 @@
       <c r="D22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="I22" s="26"/>
-      <c r="L22" s="23"/>
+      <c r="I22" s="24"/>
+      <c r="L22" s="21"/>
       <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13">
@@ -1043,8 +1045,8 @@
       <c r="D23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="I23" s="26"/>
-      <c r="L23" s="23"/>
+      <c r="I23" s="24"/>
+      <c r="L23" s="21"/>
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13">
@@ -1054,8 +1056,8 @@
       <c r="D24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="I24" s="26"/>
-      <c r="L24" s="23"/>
+      <c r="I24" s="24"/>
+      <c r="L24" s="21"/>
       <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13">
@@ -1065,8 +1067,8 @@
       <c r="D25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="I25" s="26"/>
-      <c r="L25" s="23"/>
+      <c r="I25" s="24"/>
+      <c r="L25" s="21"/>
       <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:13">
@@ -1076,8 +1078,8 @@
       <c r="D26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="I26" s="26"/>
-      <c r="L26" s="23"/>
+      <c r="I26" s="24"/>
+      <c r="L26" s="21"/>
       <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:13">
@@ -1087,8 +1089,8 @@
       <c r="D27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="I27" s="26"/>
-      <c r="L27" s="23"/>
+      <c r="I27" s="24"/>
+      <c r="L27" s="21"/>
       <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:13">
@@ -1098,8 +1100,8 @@
       <c r="D28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="I28" s="26"/>
-      <c r="L28" s="23"/>
+      <c r="I28" s="24"/>
+      <c r="L28" s="21"/>
       <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13">
@@ -1109,8 +1111,8 @@
       <c r="D29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="I29" s="26"/>
-      <c r="L29" s="23"/>
+      <c r="I29" s="24"/>
+      <c r="L29" s="21"/>
       <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13">
@@ -1120,8 +1122,8 @@
       <c r="D30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="I30" s="26"/>
-      <c r="L30" s="23"/>
+      <c r="I30" s="24"/>
+      <c r="L30" s="21"/>
       <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:13">
@@ -1131,8 +1133,8 @@
       <c r="D31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="I31" s="26"/>
-      <c r="L31" s="23"/>
+      <c r="I31" s="24"/>
+      <c r="L31" s="21"/>
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:13">
@@ -1142,8 +1144,8 @@
       <c r="D32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="I32" s="26"/>
-      <c r="L32" s="23"/>
+      <c r="I32" s="24"/>
+      <c r="L32" s="21"/>
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13">
@@ -1153,8 +1155,8 @@
       <c r="D33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="I33" s="26"/>
-      <c r="L33" s="23"/>
+      <c r="I33" s="24"/>
+      <c r="L33" s="21"/>
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13">
@@ -1164,8 +1166,8 @@
       <c r="D34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="I34" s="26"/>
-      <c r="L34" s="23"/>
+      <c r="I34" s="24"/>
+      <c r="L34" s="21"/>
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13">
@@ -1175,8 +1177,8 @@
       <c r="D35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="I35" s="26"/>
-      <c r="L35" s="23"/>
+      <c r="I35" s="24"/>
+      <c r="L35" s="21"/>
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13">
@@ -1186,8 +1188,8 @@
       <c r="D36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="I36" s="26"/>
-      <c r="L36" s="23"/>
+      <c r="I36" s="24"/>
+      <c r="L36" s="21"/>
       <c r="M36" s="3"/>
     </row>
   </sheetData>

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>current affairs</t>
   </si>
@@ -33,24 +33,12 @@
     <t>11-12.45</t>
   </si>
   <si>
-    <t>2-3.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aptitude </t>
-  </si>
-  <si>
     <t>Modern India</t>
   </si>
   <si>
     <t xml:space="preserve"> NCERT-&gt;class XI</t>
   </si>
   <si>
-    <t>R S Agrawal</t>
-  </si>
-  <si>
-    <t>3.00-5.00</t>
-  </si>
-  <si>
     <t>7.30.00-9.00</t>
   </si>
   <si>
@@ -66,9 +54,6 @@
     <t>chapter 1--&gt;3rd - 5th</t>
   </si>
   <si>
-    <t xml:space="preserve">Numbers --&gt;3rd-5th </t>
-  </si>
-  <si>
     <t xml:space="preserve">Chapter 1--&gt;4th </t>
   </si>
   <si>
@@ -111,9 +96,6 @@
     <t>https://unacademy.com/lesson/3rd-april-2017-daily-mcqs-on-current-affairs-for-government-exams-upsc-cseias-exam/CPZHFQM3</t>
   </si>
   <si>
-    <t>office work</t>
-  </si>
-  <si>
     <t xml:space="preserve">chapter 2--&gt;6th - 10th </t>
   </si>
   <si>
@@ -139,6 +121,13 @@
   </si>
   <si>
     <t xml:space="preserve">chapter 4--&gt;12th - 13th </t>
+  </si>
+  <si>
+    <t>2.00-5.00</t>
+  </si>
+  <si>
+    <t>office work
+:(</t>
   </si>
 </sst>
 </file>
@@ -219,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -243,19 +232,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -324,7 +300,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -344,44 +320,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -678,29 +649,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D3" sqref="D3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="16" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>3</v>
@@ -708,26 +678,23 @@
       <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>10</v>
+      <c r="D1" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13">
+        <v>8</v>
+      </c>
+      <c r="H1" s="21"/>
+      <c r="I1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="18"/>
+      <c r="L1" s="3"/>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="9"/>
       <c r="B2" s="9" t="s">
         <v>0</v>
@@ -735,466 +702,425 @@
       <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" ht="30">
+      <c r="A4" s="5"/>
+      <c r="B4" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="18"/>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" ht="30">
+      <c r="A5" s="3"/>
+      <c r="B5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" ht="30">
-      <c r="A4" s="5"/>
-      <c r="B4" s="25" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="5" t="s">
+      <c r="I5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" ht="30">
-      <c r="A5" s="3"/>
-      <c r="B5" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="30">
+      <c r="K5" s="18"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" ht="30">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="21"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" ht="30">
+        <v>27</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" ht="30">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="I7" s="24"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="D7" s="14"/>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="H7" s="21"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="I8" s="24"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="H8" s="21"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="I9" s="24"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="H9" s="21"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="I10" s="24"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="H10" s="21"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="I11" s="24"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="H11" s="21"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="I12" s="24"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="H12" s="21"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5"/>
-      <c r="I13" s="24"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="E13" s="3"/>
+      <c r="F13" s="5"/>
+      <c r="H13" s="21"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="I14" s="24"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="H14" s="21"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="I15" s="24"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="H15" s="21"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="I16" s="24"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="H16" s="21"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="I17" s="24"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="H17" s="21"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="I18" s="24"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="H18" s="21"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="I19" s="24"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="H19" s="21"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="I20" s="24"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="H20" s="21"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="I21" s="24"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="H21" s="21"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="I22" s="24"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="H22" s="21"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="I23" s="24"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="H23" s="21"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="I24" s="24"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="H24" s="21"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="I25" s="24"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="H25" s="21"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="I26" s="24"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="H26" s="21"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="I27" s="24"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="H27" s="21"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="I28" s="24"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="H28" s="21"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="I29" s="24"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="H29" s="21"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="I30" s="24"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="H30" s="21"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="I31" s="24"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="H31" s="21"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="I32" s="24"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="H32" s="21"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="I33" s="24"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="H33" s="21"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="I34" s="24"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="H34" s="21"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="I35" s="24"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="H35" s="21"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="I36" s="24"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="3"/>
+      <c r="H36" s="21"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="D3:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>current affairs</t>
   </si>
@@ -128,6 +128,12 @@
   <si>
     <t>office work
 :(</t>
+  </si>
+  <si>
+    <t>Not to read anymore</t>
+  </si>
+  <si>
+    <t>Spectrum</t>
   </si>
 </sst>
 </file>
@@ -170,7 +176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +213,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -300,7 +312,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -310,9 +322,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -354,6 +363,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -362,6 +378,63 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1228723</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Right Brace 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2686049" y="1247776"/>
+          <a:ext cx="171450" cy="1181099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -652,7 +725,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -669,69 +742,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="21"/>
+      <c r="H1" s="20"/>
       <c r="I1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="18"/>
+      <c r="K1" s="17"/>
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="18"/>
+      <c r="K2" s="17"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -740,102 +813,106 @@
       <c r="G3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="18"/>
+      <c r="K3" s="17"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="30">
       <c r="A4" s="5"/>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="12" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>28</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="18"/>
+      <c r="K4" s="17"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="30">
       <c r="A5" s="3"/>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="18"/>
+      <c r="K5" s="17"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="30">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="17" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="16" t="s">
         <v>32</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="18"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" ht="30">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="H7" s="21"/>
-      <c r="K7" s="18"/>
+      <c r="H7" s="20"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="28" t="s">
+        <v>38</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="4"/>
-      <c r="H8" s="21"/>
-      <c r="K8" s="18"/>
+      <c r="H8" s="20"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12">
@@ -844,8 +921,8 @@
       <c r="C9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="H9" s="21"/>
-      <c r="K9" s="18"/>
+      <c r="H9" s="20"/>
+      <c r="K9" s="17"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12">
@@ -854,8 +931,8 @@
       <c r="C10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="H10" s="21"/>
-      <c r="K10" s="18"/>
+      <c r="H10" s="20"/>
+      <c r="K10" s="17"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12">
@@ -864,8 +941,8 @@
       <c r="C11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="H11" s="21"/>
-      <c r="K11" s="18"/>
+      <c r="H11" s="20"/>
+      <c r="K11" s="17"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12">
@@ -874,8 +951,8 @@
       <c r="C12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="H12" s="21"/>
-      <c r="K12" s="18"/>
+      <c r="H12" s="20"/>
+      <c r="K12" s="17"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12">
@@ -884,8 +961,8 @@
       <c r="C13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="5"/>
-      <c r="H13" s="21"/>
-      <c r="K13" s="18"/>
+      <c r="H13" s="20"/>
+      <c r="K13" s="17"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12">
@@ -894,8 +971,8 @@
       <c r="C14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="H14" s="21"/>
-      <c r="K14" s="18"/>
+      <c r="H14" s="20"/>
+      <c r="K14" s="17"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12">
@@ -904,8 +981,8 @@
       <c r="C15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="H15" s="21"/>
-      <c r="K15" s="18"/>
+      <c r="H15" s="20"/>
+      <c r="K15" s="17"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12">
@@ -914,8 +991,8 @@
       <c r="C16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="H16" s="21"/>
-      <c r="K16" s="18"/>
+      <c r="H16" s="20"/>
+      <c r="K16" s="17"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
@@ -924,8 +1001,8 @@
       <c r="C17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="H17" s="21"/>
-      <c r="K17" s="18"/>
+      <c r="H17" s="20"/>
+      <c r="K17" s="17"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
@@ -934,8 +1011,8 @@
       <c r="C18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="H18" s="21"/>
-      <c r="K18" s="18"/>
+      <c r="H18" s="20"/>
+      <c r="K18" s="17"/>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
@@ -944,8 +1021,8 @@
       <c r="C19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="H19" s="21"/>
-      <c r="K19" s="18"/>
+      <c r="H19" s="20"/>
+      <c r="K19" s="17"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12">
@@ -954,8 +1031,8 @@
       <c r="C20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="H20" s="21"/>
-      <c r="K20" s="18"/>
+      <c r="H20" s="20"/>
+      <c r="K20" s="17"/>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12">
@@ -964,8 +1041,8 @@
       <c r="C21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="H21" s="21"/>
-      <c r="K21" s="18"/>
+      <c r="H21" s="20"/>
+      <c r="K21" s="17"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12">
@@ -974,8 +1051,8 @@
       <c r="C22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="H22" s="21"/>
-      <c r="K22" s="18"/>
+      <c r="H22" s="20"/>
+      <c r="K22" s="17"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12">
@@ -984,8 +1061,8 @@
       <c r="C23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="H23" s="21"/>
-      <c r="K23" s="18"/>
+      <c r="H23" s="20"/>
+      <c r="K23" s="17"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12">
@@ -994,8 +1071,8 @@
       <c r="C24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="H24" s="21"/>
-      <c r="K24" s="18"/>
+      <c r="H24" s="20"/>
+      <c r="K24" s="17"/>
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12">
@@ -1004,8 +1081,8 @@
       <c r="C25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="H25" s="21"/>
-      <c r="K25" s="18"/>
+      <c r="H25" s="20"/>
+      <c r="K25" s="17"/>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12">
@@ -1014,8 +1091,8 @@
       <c r="C26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="H26" s="21"/>
-      <c r="K26" s="18"/>
+      <c r="H26" s="20"/>
+      <c r="K26" s="17"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12">
@@ -1024,8 +1101,8 @@
       <c r="C27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="H27" s="21"/>
-      <c r="K27" s="18"/>
+      <c r="H27" s="20"/>
+      <c r="K27" s="17"/>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12">
@@ -1034,8 +1111,8 @@
       <c r="C28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="H28" s="21"/>
-      <c r="K28" s="18"/>
+      <c r="H28" s="20"/>
+      <c r="K28" s="17"/>
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12">
@@ -1044,8 +1121,8 @@
       <c r="C29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="H29" s="21"/>
-      <c r="K29" s="18"/>
+      <c r="H29" s="20"/>
+      <c r="K29" s="17"/>
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12">
@@ -1054,8 +1131,8 @@
       <c r="C30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="H30" s="21"/>
-      <c r="K30" s="18"/>
+      <c r="H30" s="20"/>
+      <c r="K30" s="17"/>
       <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:12">
@@ -1064,8 +1141,8 @@
       <c r="C31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="H31" s="21"/>
-      <c r="K31" s="18"/>
+      <c r="H31" s="20"/>
+      <c r="K31" s="17"/>
       <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:12">
@@ -1074,8 +1151,8 @@
       <c r="C32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="H32" s="21"/>
-      <c r="K32" s="18"/>
+      <c r="H32" s="20"/>
+      <c r="K32" s="17"/>
       <c r="L32" s="3"/>
     </row>
     <row r="33" spans="1:12">
@@ -1084,8 +1161,8 @@
       <c r="C33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="H33" s="21"/>
-      <c r="K33" s="18"/>
+      <c r="H33" s="20"/>
+      <c r="K33" s="17"/>
       <c r="L33" s="3"/>
     </row>
     <row r="34" spans="1:12">
@@ -1094,8 +1171,8 @@
       <c r="C34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="H34" s="21"/>
-      <c r="K34" s="18"/>
+      <c r="H34" s="20"/>
+      <c r="K34" s="17"/>
       <c r="L34" s="3"/>
     </row>
     <row r="35" spans="1:12">
@@ -1104,8 +1181,8 @@
       <c r="C35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="H35" s="21"/>
-      <c r="K35" s="18"/>
+      <c r="H35" s="20"/>
+      <c r="K35" s="17"/>
       <c r="L35" s="3"/>
     </row>
     <row r="36" spans="1:12">
@@ -1114,8 +1191,8 @@
       <c r="C36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="H36" s="21"/>
-      <c r="K36" s="18"/>
+      <c r="H36" s="20"/>
+      <c r="K36" s="17"/>
       <c r="L36" s="3"/>
     </row>
   </sheetData>
@@ -1124,6 +1201,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>current affairs</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Spectrum</t>
+  </si>
+  <si>
+    <t>Chapter-5--&gt;14th-15th</t>
   </si>
 </sst>
 </file>
@@ -312,7 +315,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -357,18 +360,24 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -725,7 +734,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -798,10 +807,10 @@
       <c r="B3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -825,10 +834,10 @@
       <c r="B4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
@@ -850,10 +859,10 @@
       <c r="B5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
@@ -870,10 +879,10 @@
     <row r="6" spans="1:12" ht="30">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="16" t="s">
         <v>32</v>
       </c>
@@ -895,7 +904,7 @@
         <v>37</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="29" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="3"/>
@@ -903,13 +912,15 @@
       <c r="K7" s="17"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" ht="30">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="30" t="s">
+        <v>39</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="H8" s="20"/>
       <c r="K8" s="17"/>

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>current affairs</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>Not started</t>
-  </si>
-  <si>
-    <t>Chapter 1</t>
   </si>
   <si>
     <t>Chapter 3--&gt;9th-10th</t>
@@ -137,6 +134,12 @@
   </si>
   <si>
     <t>Chapter-5--&gt;14th-15th</t>
+  </si>
+  <si>
+    <t>Chapter 1--&gt;15th-16th</t>
+  </si>
+  <si>
+    <t>chapter 1--&gt;15th - 17th</t>
   </si>
 </sst>
 </file>
@@ -286,18 +289,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -315,7 +320,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -350,7 +355,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -360,23 +365,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -734,7 +741,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -761,7 +768,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>7</v>
@@ -807,11 +814,11 @@
       <c r="B3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="27" t="s">
-        <v>36</v>
+      <c r="D3" s="30" t="s">
+        <v>35</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>6</v>
@@ -834,15 +841,15 @@
       <c r="B4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="27"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>28</v>
@@ -859,10 +866,10 @@
       <c r="B5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
@@ -879,16 +886,16 @@
     <row r="6" spans="1:12" ht="30">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H6" s="20"/>
       <c r="I6" s="3" t="s">
@@ -900,12 +907,12 @@
     <row r="7" spans="1:12" ht="30">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="29" t="s">
-        <v>33</v>
+      <c r="C7" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="F7" s="3"/>
       <c r="H7" s="20"/>
@@ -915,22 +922,26 @@
     <row r="8" spans="1:12" ht="30">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="29" t="s">
         <v>38</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>39</v>
       </c>
       <c r="F8" s="4"/>
       <c r="H8" s="20"/>
       <c r="K8" s="17"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" ht="30">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="3"/>
       <c r="H9" s="20"/>
       <c r="K9" s="17"/>
@@ -939,8 +950,9 @@
     <row r="10" spans="1:12">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="3"/>
       <c r="H10" s="20"/>
       <c r="K10" s="17"/>
@@ -949,8 +961,9 @@
     <row r="11" spans="1:12">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="3"/>
       <c r="H11" s="20"/>
       <c r="K11" s="17"/>
@@ -959,8 +972,9 @@
     <row r="12" spans="1:12">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="3"/>
       <c r="H12" s="20"/>
       <c r="K12" s="17"/>
@@ -969,8 +983,9 @@
     <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="5"/>
       <c r="H13" s="20"/>
       <c r="K13" s="17"/>
@@ -979,8 +994,9 @@
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="3"/>
       <c r="H14" s="20"/>
       <c r="K14" s="17"/>
@@ -989,8 +1005,9 @@
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="3"/>
       <c r="H15" s="20"/>
       <c r="K15" s="17"/>
@@ -999,8 +1016,9 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="3"/>
       <c r="H16" s="20"/>
       <c r="K16" s="17"/>
@@ -1009,8 +1027,9 @@
     <row r="17" spans="1:12">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="3"/>
       <c r="H17" s="20"/>
       <c r="K17" s="17"/>
@@ -1019,8 +1038,9 @@
     <row r="18" spans="1:12">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="3"/>
       <c r="H18" s="20"/>
       <c r="K18" s="17"/>
@@ -1029,8 +1049,9 @@
     <row r="19" spans="1:12">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="3"/>
       <c r="H19" s="20"/>
       <c r="K19" s="17"/>
@@ -1040,6 +1061,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="H20" s="20"/>

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>current affairs</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>chapter 1--&gt;15th - 17th</t>
+  </si>
+  <si>
+    <t>Chapter 2--&gt;17th-18th</t>
   </si>
 </sst>
 </file>
@@ -320,7 +323,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -379,12 +382,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -741,7 +747,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -817,7 +823,7 @@
       <c r="C3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="10" t="s">
@@ -844,11 +850,11 @@
       <c r="C4" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="33" t="s">
         <v>39</v>
       </c>
       <c r="G4" s="18" t="s">
@@ -869,11 +875,13 @@
       <c r="C5" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="G5" s="23" t="s">
         <v>29</v>
       </c>
@@ -889,7 +897,7 @@
       <c r="C6" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="30"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="16" t="s">
         <v>31</v>
       </c>
@@ -910,7 +918,7 @@
       <c r="C7" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="28" t="s">
         <v>32</v>
       </c>
@@ -925,7 +933,7 @@
       <c r="C8" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="29" t="s">
         <v>38</v>
       </c>
@@ -937,10 +945,10 @@
     <row r="9" spans="1:12" ht="30">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="17"/>
       <c r="F9" s="3"/>
       <c r="H9" s="20"/>
@@ -951,7 +959,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="26"/>
-      <c r="D10" s="31"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="17"/>
       <c r="F10" s="3"/>
       <c r="H10" s="20"/>
@@ -962,7 +970,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="26"/>
-      <c r="D11" s="31"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="17"/>
       <c r="F11" s="3"/>
       <c r="H11" s="20"/>
@@ -973,7 +981,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="26"/>
-      <c r="D12" s="31"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="17"/>
       <c r="F12" s="3"/>
       <c r="H12" s="20"/>
@@ -984,7 +992,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="31"/>
+      <c r="D13" s="30"/>
       <c r="E13" s="17"/>
       <c r="F13" s="5"/>
       <c r="H13" s="20"/>
@@ -995,7 +1003,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="26"/>
-      <c r="D14" s="31"/>
+      <c r="D14" s="30"/>
       <c r="E14" s="17"/>
       <c r="F14" s="3"/>
       <c r="H14" s="20"/>
@@ -1006,7 +1014,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="26"/>
-      <c r="D15" s="31"/>
+      <c r="D15" s="30"/>
       <c r="E15" s="17"/>
       <c r="F15" s="3"/>
       <c r="H15" s="20"/>
@@ -1017,7 +1025,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="26"/>
-      <c r="D16" s="31"/>
+      <c r="D16" s="30"/>
       <c r="E16" s="17"/>
       <c r="F16" s="3"/>
       <c r="H16" s="20"/>
@@ -1028,7 +1036,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="26"/>
-      <c r="D17" s="31"/>
+      <c r="D17" s="30"/>
       <c r="E17" s="17"/>
       <c r="F17" s="3"/>
       <c r="H17" s="20"/>
@@ -1039,7 +1047,7 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="26"/>
-      <c r="D18" s="31"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="17"/>
       <c r="F18" s="3"/>
       <c r="H18" s="20"/>
@@ -1050,7 +1058,7 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="26"/>
-      <c r="D19" s="31"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="17"/>
       <c r="F19" s="3"/>
       <c r="H19" s="20"/>

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>current affairs</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>Chapter 2--&gt;17th-18th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chapter 5--&gt;14th - 16th </t>
+  </si>
+  <si>
+    <t>Chapter 6--&gt;17th-18th</t>
+  </si>
+  <si>
+    <t>Chapter 3--&gt;18th-19th</t>
   </si>
 </sst>
 </file>
@@ -323,7 +332,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -333,9 +342,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -386,10 +392,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -747,7 +753,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -764,69 +770,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="20"/>
+      <c r="H1" s="19"/>
       <c r="I1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="17"/>
+      <c r="K1" s="16"/>
       <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="17"/>
+      <c r="K2" s="16"/>
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -835,245 +841,255 @@
       <c r="G3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="20"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="17"/>
+      <c r="K3" s="16"/>
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="30">
       <c r="A4" s="5"/>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="32"/>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="17" t="s">
         <v>28</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="17"/>
+      <c r="K4" s="16"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="30">
       <c r="A5" s="3"/>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="32"/>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="17"/>
+      <c r="K5" s="16"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="30">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="32"/>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="6" t="s">
+      <c r="F6" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="17"/>
+      <c r="K6" s="16"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" ht="30">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="28" t="s">
+      <c r="D7" s="29"/>
+      <c r="E7" s="27" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="3"/>
-      <c r="H7" s="20"/>
-      <c r="K7" s="17"/>
+      <c r="G7" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="K7" s="16"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="30">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="29" t="s">
+      <c r="D8" s="29"/>
+      <c r="E8" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="H8" s="20"/>
-      <c r="K8" s="17"/>
+      <c r="G8" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="K8" s="16"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="30">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="17"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="28" t="s">
+        <v>43</v>
+      </c>
       <c r="F9" s="3"/>
-      <c r="H9" s="20"/>
-      <c r="K9" s="17"/>
+      <c r="H9" s="19"/>
+      <c r="K9" s="16"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="17"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="16"/>
       <c r="F10" s="3"/>
-      <c r="H10" s="20"/>
-      <c r="K10" s="17"/>
+      <c r="H10" s="19"/>
+      <c r="K10" s="16"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="17"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="3"/>
-      <c r="H11" s="20"/>
-      <c r="K11" s="17"/>
+      <c r="H11" s="19"/>
+      <c r="K11" s="16"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="17"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="3"/>
-      <c r="H12" s="20"/>
-      <c r="K12" s="17"/>
+      <c r="H12" s="19"/>
+      <c r="K12" s="16"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="17"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="16"/>
       <c r="F13" s="5"/>
-      <c r="H13" s="20"/>
-      <c r="K13" s="17"/>
+      <c r="H13" s="19"/>
+      <c r="K13" s="16"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="17"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="3"/>
-      <c r="H14" s="20"/>
-      <c r="K14" s="17"/>
+      <c r="H14" s="19"/>
+      <c r="K14" s="16"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="17"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="3"/>
-      <c r="H15" s="20"/>
-      <c r="K15" s="17"/>
+      <c r="H15" s="19"/>
+      <c r="K15" s="16"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="17"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="3"/>
-      <c r="H16" s="20"/>
-      <c r="K16" s="17"/>
+      <c r="H16" s="19"/>
+      <c r="K16" s="16"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="17"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="3"/>
-      <c r="H17" s="20"/>
-      <c r="K17" s="17"/>
+      <c r="H17" s="19"/>
+      <c r="K17" s="16"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="17"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="3"/>
-      <c r="H18" s="20"/>
-      <c r="K18" s="17"/>
+      <c r="H18" s="19"/>
+      <c r="K18" s="16"/>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="17"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="3"/>
-      <c r="H19" s="20"/>
-      <c r="K19" s="17"/>
+      <c r="H19" s="19"/>
+      <c r="K19" s="16"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="13"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="H20" s="20"/>
-      <c r="K20" s="17"/>
+      <c r="H20" s="19"/>
+      <c r="K20" s="16"/>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12">
@@ -1082,8 +1098,8 @@
       <c r="C21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="H21" s="20"/>
-      <c r="K21" s="17"/>
+      <c r="H21" s="19"/>
+      <c r="K21" s="16"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="1:12">
@@ -1092,8 +1108,8 @@
       <c r="C22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="H22" s="20"/>
-      <c r="K22" s="17"/>
+      <c r="H22" s="19"/>
+      <c r="K22" s="16"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="1:12">
@@ -1102,8 +1118,8 @@
       <c r="C23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="H23" s="20"/>
-      <c r="K23" s="17"/>
+      <c r="H23" s="19"/>
+      <c r="K23" s="16"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="1:12">
@@ -1112,8 +1128,8 @@
       <c r="C24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="H24" s="20"/>
-      <c r="K24" s="17"/>
+      <c r="H24" s="19"/>
+      <c r="K24" s="16"/>
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12">
@@ -1122,8 +1138,8 @@
       <c r="C25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="H25" s="20"/>
-      <c r="K25" s="17"/>
+      <c r="H25" s="19"/>
+      <c r="K25" s="16"/>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12">
@@ -1132,8 +1148,8 @@
       <c r="C26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="H26" s="20"/>
-      <c r="K26" s="17"/>
+      <c r="H26" s="19"/>
+      <c r="K26" s="16"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12">
@@ -1142,8 +1158,8 @@
       <c r="C27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="H27" s="20"/>
-      <c r="K27" s="17"/>
+      <c r="H27" s="19"/>
+      <c r="K27" s="16"/>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12">
@@ -1152,8 +1168,8 @@
       <c r="C28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="H28" s="20"/>
-      <c r="K28" s="17"/>
+      <c r="H28" s="19"/>
+      <c r="K28" s="16"/>
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12">
@@ -1162,8 +1178,8 @@
       <c r="C29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="H29" s="20"/>
-      <c r="K29" s="17"/>
+      <c r="H29" s="19"/>
+      <c r="K29" s="16"/>
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="1:12">
@@ -1172,8 +1188,8 @@
       <c r="C30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="H30" s="20"/>
-      <c r="K30" s="17"/>
+      <c r="H30" s="19"/>
+      <c r="K30" s="16"/>
       <c r="L30" s="3"/>
     </row>
     <row r="31" spans="1:12">
@@ -1182,8 +1198,8 @@
       <c r="C31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="H31" s="20"/>
-      <c r="K31" s="17"/>
+      <c r="H31" s="19"/>
+      <c r="K31" s="16"/>
       <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:12">
@@ -1192,8 +1208,8 @@
       <c r="C32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="H32" s="20"/>
-      <c r="K32" s="17"/>
+      <c r="H32" s="19"/>
+      <c r="K32" s="16"/>
       <c r="L32" s="3"/>
     </row>
     <row r="33" spans="1:12">
@@ -1202,8 +1218,8 @@
       <c r="C33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="H33" s="20"/>
-      <c r="K33" s="17"/>
+      <c r="H33" s="19"/>
+      <c r="K33" s="16"/>
       <c r="L33" s="3"/>
     </row>
     <row r="34" spans="1:12">
@@ -1212,8 +1228,8 @@
       <c r="C34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="H34" s="20"/>
-      <c r="K34" s="17"/>
+      <c r="H34" s="19"/>
+      <c r="K34" s="16"/>
       <c r="L34" s="3"/>
     </row>
     <row r="35" spans="1:12">
@@ -1222,8 +1238,8 @@
       <c r="C35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="H35" s="20"/>
-      <c r="K35" s="17"/>
+      <c r="H35" s="19"/>
+      <c r="K35" s="16"/>
       <c r="L35" s="3"/>
     </row>
     <row r="36" spans="1:12">
@@ -1232,8 +1248,8 @@
       <c r="C36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="H36" s="20"/>
-      <c r="K36" s="17"/>
+      <c r="H36" s="19"/>
+      <c r="K36" s="16"/>
       <c r="L36" s="3"/>
     </row>
   </sheetData>

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>current affairs</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>Chapter 3--&gt;18th-19th</t>
+  </si>
+  <si>
+    <t>Prev yr Questions</t>
+  </si>
+  <si>
+    <t>http://visionias.in/student_open/pt/pt_list.php?type=3</t>
   </si>
 </sst>
 </file>
@@ -753,7 +759,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -816,6 +822,9 @@
       <c r="I2" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="J2" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="K2" s="16"/>
       <c r="L2" s="3"/>
     </row>
@@ -844,6 +853,9 @@
       <c r="H3" s="19"/>
       <c r="I3" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="K3" s="16"/>
       <c r="L3" s="3"/>

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>current affairs</t>
   </si>
@@ -158,6 +158,15 @@
   </si>
   <si>
     <t>http://visionias.in/student_open/pt/pt_list.php?type=3</t>
+  </si>
+  <si>
+    <t>Chapter 4--&gt;20th-22nd</t>
+  </si>
+  <si>
+    <t>Chapter 2 --&gt; 18th-23rd</t>
+  </si>
+  <si>
+    <t>Chapter 3--&gt;26th-27th</t>
   </si>
 </sst>
 </file>
@@ -395,14 +404,14 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -759,7 +768,7 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -838,7 +847,7 @@
       <c r="C3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="31" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -868,11 +877,11 @@
       <c r="C4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="32"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="30" t="s">
         <v>39</v>
       </c>
       <c r="G4" s="17" t="s">
@@ -893,11 +902,11 @@
       <c r="C5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="30" t="s">
         <v>41</v>
       </c>
       <c r="G5" s="22" t="s">
@@ -915,14 +924,14 @@
       <c r="C6" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="30" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="19"/>
@@ -942,8 +951,10 @@
       <c r="E7" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="31" t="s">
+      <c r="F7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="30" t="s">
         <v>42</v>
       </c>
       <c r="H7" s="19"/>
@@ -971,7 +982,7 @@
     <row r="9" spans="1:12" ht="30">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="32" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="29"/>
@@ -983,10 +994,12 @@
       <c r="K9" s="16"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" ht="30">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="25"/>
+      <c r="C10" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="D10" s="29"/>
       <c r="E10" s="16"/>
       <c r="F10" s="3"/>
@@ -994,10 +1007,12 @@
       <c r="K10" s="16"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" ht="30">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="25"/>
+      <c r="C11" s="28" t="s">
+        <v>49</v>
+      </c>
       <c r="D11" s="29"/>
       <c r="E11" s="16"/>
       <c r="F11" s="3"/>

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>current affairs</t>
   </si>
@@ -158,7 +158,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]hh:mm:ss;@"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,8 +196,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,8 +255,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -324,6 +360,124 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -332,71 +486,109 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -412,15 +604,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>1228723</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>209551</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -750,511 +942,1194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L36"/>
+  <dimension ref="B1:M324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="9"/>
+    <col min="2" max="2" width="11.5703125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" style="9" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="16" style="9" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="9" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:13" customFormat="1" ht="21.75" thickBot="1">
+      <c r="B2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="2" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" customFormat="1" ht="21">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="8" t="s">
+      <c r="E3" s="38"/>
+      <c r="F3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="H3" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I3" s="32"/>
+      <c r="J3" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="6" t="s">
+      <c r="K3" s="1"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" customFormat="1" ht="15" customHeight="1">
+      <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="C4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="E4" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="4" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" ht="30">
-      <c r="A4" s="5"/>
-      <c r="B4" s="20" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" customFormat="1" ht="75">
+      <c r="B5" s="14"/>
+      <c r="C5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="10" t="s">
+      <c r="E5" s="36"/>
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="G5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="H5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="5" t="s">
+      <c r="I5" s="14"/>
+      <c r="J5" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" ht="30">
-      <c r="A5" s="3"/>
-      <c r="B5" s="21" t="s">
+      <c r="K5" s="1"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="2:13" customFormat="1" ht="90">
+      <c r="B6" s="14"/>
+      <c r="C6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="11" t="s">
+      <c r="E6" s="36"/>
+      <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="G6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="H6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I6" s="20"/>
+      <c r="J6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" ht="30">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="24" t="s">
+      <c r="K6" s="1"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="2:13" customFormat="1" ht="30">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="15" t="s">
+      <c r="E7" s="36"/>
+      <c r="F7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="G7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="H7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="3" t="s">
+      <c r="I7" s="18"/>
+      <c r="J7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" ht="30">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="25" t="s">
+      <c r="K7" s="1"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" customFormat="1" ht="30">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="27" t="s">
+      <c r="E8" s="36"/>
+      <c r="F8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="31" t="s">
+      <c r="G8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="19"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" ht="30">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="26" t="s">
+      <c r="I8" s="18"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="2:13" customFormat="1" ht="30">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="11" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="28" t="s">
+      <c r="G9" s="14"/>
+      <c r="H9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="19"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" ht="30">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="30" t="s">
+      <c r="I9" s="18"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="2:13" customFormat="1" ht="30">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="28" t="s">
+      <c r="E10" s="36"/>
+      <c r="F10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="H9" s="19"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="3"/>
-      <c r="H10" s="19"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="3"/>
-      <c r="H11" s="19"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="3"/>
-      <c r="H12" s="19"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="5"/>
-      <c r="H13" s="19"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="3"/>
-      <c r="H14" s="19"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="3"/>
-      <c r="H15" s="19"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="3"/>
-      <c r="H16" s="19"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="3"/>
-      <c r="H17" s="19"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="3"/>
-      <c r="H18" s="19"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="3"/>
-      <c r="H19" s="19"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="H20" s="19"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="H21" s="19"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="H22" s="19"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="H23" s="19"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="H24" s="19"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="H25" s="19"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="H26" s="19"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="H27" s="19"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="H28" s="19"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="H29" s="19"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="H30" s="19"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="H31" s="19"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="H32" s="19"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="H33" s="19"/>
-      <c r="K33" s="16"/>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="H34" s="19"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="H35" s="19"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="H36" s="19"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="3"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="2:13">
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="5:5">
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="5:5">
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="5:5">
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="5:5">
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="5:5">
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="5:5">
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="5:5">
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="5:5">
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="5:5">
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="5:5">
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="5:5">
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="5:5">
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="5:5">
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="5:5">
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="5:5">
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="5:5">
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="5:5">
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="5:5">
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="5:5">
+      <c r="E43" s="9"/>
+    </row>
+    <row r="44" spans="5:5">
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="5:5">
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" spans="5:5">
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="5:5">
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="5:5">
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="5:5">
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="5:5">
+      <c r="E50" s="9"/>
+    </row>
+    <row r="51" spans="5:5">
+      <c r="E51" s="9"/>
+    </row>
+    <row r="52" spans="5:5">
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="5:5">
+      <c r="E53" s="9"/>
+    </row>
+    <row r="54" spans="5:5">
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="5:5">
+      <c r="E55" s="9"/>
+    </row>
+    <row r="56" spans="5:5">
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="5:5">
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" spans="5:5">
+      <c r="E58" s="9"/>
+    </row>
+    <row r="59" spans="5:5">
+      <c r="E59" s="9"/>
+    </row>
+    <row r="60" spans="5:5">
+      <c r="E60" s="9"/>
+    </row>
+    <row r="61" spans="5:5">
+      <c r="E61" s="9"/>
+    </row>
+    <row r="62" spans="5:5">
+      <c r="E62" s="9"/>
+    </row>
+    <row r="63" spans="5:5">
+      <c r="E63" s="9"/>
+    </row>
+    <row r="64" spans="5:5">
+      <c r="E64" s="9"/>
+    </row>
+    <row r="65" spans="5:5">
+      <c r="E65" s="9"/>
+    </row>
+    <row r="66" spans="5:5">
+      <c r="E66" s="9"/>
+    </row>
+    <row r="67" spans="5:5">
+      <c r="E67" s="9"/>
+    </row>
+    <row r="68" spans="5:5">
+      <c r="E68" s="9"/>
+    </row>
+    <row r="69" spans="5:5">
+      <c r="E69" s="9"/>
+    </row>
+    <row r="70" spans="5:5">
+      <c r="E70" s="9"/>
+    </row>
+    <row r="71" spans="5:5">
+      <c r="E71" s="9"/>
+    </row>
+    <row r="72" spans="5:5">
+      <c r="E72" s="9"/>
+    </row>
+    <row r="73" spans="5:5">
+      <c r="E73" s="9"/>
+    </row>
+    <row r="74" spans="5:5">
+      <c r="E74" s="9"/>
+    </row>
+    <row r="75" spans="5:5">
+      <c r="E75" s="9"/>
+    </row>
+    <row r="76" spans="5:5">
+      <c r="E76" s="9"/>
+    </row>
+    <row r="77" spans="5:5">
+      <c r="E77" s="9"/>
+    </row>
+    <row r="78" spans="5:5">
+      <c r="E78" s="9"/>
+    </row>
+    <row r="79" spans="5:5">
+      <c r="E79" s="9"/>
+    </row>
+    <row r="80" spans="5:5">
+      <c r="E80" s="9"/>
+    </row>
+    <row r="81" spans="5:5">
+      <c r="E81" s="9"/>
+    </row>
+    <row r="82" spans="5:5">
+      <c r="E82" s="9"/>
+    </row>
+    <row r="83" spans="5:5">
+      <c r="E83" s="9"/>
+    </row>
+    <row r="84" spans="5:5">
+      <c r="E84" s="9"/>
+    </row>
+    <row r="85" spans="5:5">
+      <c r="E85" s="9"/>
+    </row>
+    <row r="86" spans="5:5">
+      <c r="E86" s="9"/>
+    </row>
+    <row r="87" spans="5:5">
+      <c r="E87" s="9"/>
+    </row>
+    <row r="88" spans="5:5">
+      <c r="E88" s="9"/>
+    </row>
+    <row r="89" spans="5:5">
+      <c r="E89" s="9"/>
+    </row>
+    <row r="90" spans="5:5">
+      <c r="E90" s="9"/>
+    </row>
+    <row r="91" spans="5:5">
+      <c r="E91" s="9"/>
+    </row>
+    <row r="92" spans="5:5">
+      <c r="E92" s="9"/>
+    </row>
+    <row r="93" spans="5:5">
+      <c r="E93" s="9"/>
+    </row>
+    <row r="94" spans="5:5">
+      <c r="E94" s="9"/>
+    </row>
+    <row r="95" spans="5:5">
+      <c r="E95" s="9"/>
+    </row>
+    <row r="96" spans="5:5">
+      <c r="E96" s="9"/>
+    </row>
+    <row r="97" spans="5:5">
+      <c r="E97" s="9"/>
+    </row>
+    <row r="98" spans="5:5">
+      <c r="E98" s="9"/>
+    </row>
+    <row r="99" spans="5:5">
+      <c r="E99" s="9"/>
+    </row>
+    <row r="100" spans="5:5">
+      <c r="E100" s="9"/>
+    </row>
+    <row r="101" spans="5:5">
+      <c r="E101" s="9"/>
+    </row>
+    <row r="102" spans="5:5">
+      <c r="E102" s="9"/>
+    </row>
+    <row r="103" spans="5:5">
+      <c r="E103" s="9"/>
+    </row>
+    <row r="104" spans="5:5">
+      <c r="E104" s="9"/>
+    </row>
+    <row r="105" spans="5:5">
+      <c r="E105" s="9"/>
+    </row>
+    <row r="106" spans="5:5">
+      <c r="E106" s="9"/>
+    </row>
+    <row r="107" spans="5:5">
+      <c r="E107" s="9"/>
+    </row>
+    <row r="108" spans="5:5">
+      <c r="E108" s="9"/>
+    </row>
+    <row r="109" spans="5:5">
+      <c r="E109" s="9"/>
+    </row>
+    <row r="110" spans="5:5">
+      <c r="E110" s="9"/>
+    </row>
+    <row r="111" spans="5:5">
+      <c r="E111" s="9"/>
+    </row>
+    <row r="112" spans="5:5">
+      <c r="E112" s="9"/>
+    </row>
+    <row r="113" spans="5:5">
+      <c r="E113" s="9"/>
+    </row>
+    <row r="114" spans="5:5">
+      <c r="E114" s="9"/>
+    </row>
+    <row r="115" spans="5:5">
+      <c r="E115" s="9"/>
+    </row>
+    <row r="116" spans="5:5">
+      <c r="E116" s="9"/>
+    </row>
+    <row r="117" spans="5:5">
+      <c r="E117" s="9"/>
+    </row>
+    <row r="118" spans="5:5">
+      <c r="E118" s="9"/>
+    </row>
+    <row r="119" spans="5:5">
+      <c r="E119" s="9"/>
+    </row>
+    <row r="120" spans="5:5">
+      <c r="E120" s="9"/>
+    </row>
+    <row r="121" spans="5:5">
+      <c r="E121" s="9"/>
+    </row>
+    <row r="122" spans="5:5">
+      <c r="E122" s="9"/>
+    </row>
+    <row r="123" spans="5:5">
+      <c r="E123" s="9"/>
+    </row>
+    <row r="124" spans="5:5">
+      <c r="E124" s="9"/>
+    </row>
+    <row r="125" spans="5:5">
+      <c r="E125" s="9"/>
+    </row>
+    <row r="126" spans="5:5">
+      <c r="E126" s="9"/>
+    </row>
+    <row r="127" spans="5:5">
+      <c r="E127" s="9"/>
+    </row>
+    <row r="128" spans="5:5">
+      <c r="E128" s="9"/>
+    </row>
+    <row r="129" spans="5:5">
+      <c r="E129" s="9"/>
+    </row>
+    <row r="130" spans="5:5">
+      <c r="E130" s="9"/>
+    </row>
+    <row r="131" spans="5:5">
+      <c r="E131" s="9"/>
+    </row>
+    <row r="132" spans="5:5">
+      <c r="E132" s="9"/>
+    </row>
+    <row r="133" spans="5:5">
+      <c r="E133" s="9"/>
+    </row>
+    <row r="134" spans="5:5">
+      <c r="E134" s="9"/>
+    </row>
+    <row r="135" spans="5:5">
+      <c r="E135" s="9"/>
+    </row>
+    <row r="136" spans="5:5">
+      <c r="E136" s="9"/>
+    </row>
+    <row r="137" spans="5:5">
+      <c r="E137" s="9"/>
+    </row>
+    <row r="138" spans="5:5">
+      <c r="E138" s="9"/>
+    </row>
+    <row r="139" spans="5:5">
+      <c r="E139" s="9"/>
+    </row>
+    <row r="140" spans="5:5">
+      <c r="E140" s="9"/>
+    </row>
+    <row r="141" spans="5:5">
+      <c r="E141" s="9"/>
+    </row>
+    <row r="142" spans="5:5">
+      <c r="E142" s="9"/>
+    </row>
+    <row r="143" spans="5:5">
+      <c r="E143" s="9"/>
+    </row>
+    <row r="144" spans="5:5">
+      <c r="E144" s="9"/>
+    </row>
+    <row r="145" spans="5:5">
+      <c r="E145" s="9"/>
+    </row>
+    <row r="146" spans="5:5">
+      <c r="E146" s="9"/>
+    </row>
+    <row r="147" spans="5:5">
+      <c r="E147" s="9"/>
+    </row>
+    <row r="148" spans="5:5">
+      <c r="E148" s="9"/>
+    </row>
+    <row r="149" spans="5:5">
+      <c r="E149" s="9"/>
+    </row>
+    <row r="150" spans="5:5">
+      <c r="E150" s="9"/>
+    </row>
+    <row r="151" spans="5:5">
+      <c r="E151" s="9"/>
+    </row>
+    <row r="152" spans="5:5">
+      <c r="E152" s="9"/>
+    </row>
+    <row r="153" spans="5:5">
+      <c r="E153" s="9"/>
+    </row>
+    <row r="154" spans="5:5">
+      <c r="E154" s="9"/>
+    </row>
+    <row r="155" spans="5:5">
+      <c r="E155" s="9"/>
+    </row>
+    <row r="156" spans="5:5">
+      <c r="E156" s="9"/>
+    </row>
+    <row r="157" spans="5:5">
+      <c r="E157" s="9"/>
+    </row>
+    <row r="158" spans="5:5">
+      <c r="E158" s="9"/>
+    </row>
+    <row r="159" spans="5:5">
+      <c r="E159" s="9"/>
+    </row>
+    <row r="160" spans="5:5">
+      <c r="E160" s="9"/>
+    </row>
+    <row r="161" spans="5:5">
+      <c r="E161" s="9"/>
+    </row>
+    <row r="162" spans="5:5">
+      <c r="E162" s="9"/>
+    </row>
+    <row r="163" spans="5:5">
+      <c r="E163" s="9"/>
+    </row>
+    <row r="164" spans="5:5">
+      <c r="E164" s="9"/>
+    </row>
+    <row r="165" spans="5:5">
+      <c r="E165" s="9"/>
+    </row>
+    <row r="166" spans="5:5">
+      <c r="E166" s="9"/>
+    </row>
+    <row r="167" spans="5:5">
+      <c r="E167" s="9"/>
+    </row>
+    <row r="168" spans="5:5">
+      <c r="E168" s="9"/>
+    </row>
+    <row r="169" spans="5:5">
+      <c r="E169" s="9"/>
+    </row>
+    <row r="170" spans="5:5">
+      <c r="E170" s="9"/>
+    </row>
+    <row r="171" spans="5:5">
+      <c r="E171" s="9"/>
+    </row>
+    <row r="172" spans="5:5">
+      <c r="E172" s="9"/>
+    </row>
+    <row r="173" spans="5:5">
+      <c r="E173" s="9"/>
+    </row>
+    <row r="174" spans="5:5">
+      <c r="E174" s="9"/>
+    </row>
+    <row r="175" spans="5:5">
+      <c r="E175" s="9"/>
+    </row>
+    <row r="176" spans="5:5">
+      <c r="E176" s="9"/>
+    </row>
+    <row r="177" spans="5:5">
+      <c r="E177" s="9"/>
+    </row>
+    <row r="178" spans="5:5">
+      <c r="E178" s="9"/>
+    </row>
+    <row r="179" spans="5:5">
+      <c r="E179" s="9"/>
+    </row>
+    <row r="180" spans="5:5">
+      <c r="E180" s="9"/>
+    </row>
+    <row r="181" spans="5:5">
+      <c r="E181" s="9"/>
+    </row>
+    <row r="182" spans="5:5">
+      <c r="E182" s="9"/>
+    </row>
+    <row r="183" spans="5:5">
+      <c r="E183" s="9"/>
+    </row>
+    <row r="184" spans="5:5">
+      <c r="E184" s="9"/>
+    </row>
+    <row r="185" spans="5:5">
+      <c r="E185" s="9"/>
+    </row>
+    <row r="186" spans="5:5">
+      <c r="E186" s="9"/>
+    </row>
+    <row r="187" spans="5:5">
+      <c r="E187" s="9"/>
+    </row>
+    <row r="188" spans="5:5">
+      <c r="E188" s="9"/>
+    </row>
+    <row r="189" spans="5:5">
+      <c r="E189" s="9"/>
+    </row>
+    <row r="190" spans="5:5">
+      <c r="E190" s="9"/>
+    </row>
+    <row r="191" spans="5:5">
+      <c r="E191" s="9"/>
+    </row>
+    <row r="192" spans="5:5">
+      <c r="E192" s="9"/>
+    </row>
+    <row r="193" spans="5:5">
+      <c r="E193" s="9"/>
+    </row>
+    <row r="194" spans="5:5">
+      <c r="E194" s="9"/>
+    </row>
+    <row r="195" spans="5:5">
+      <c r="E195" s="9"/>
+    </row>
+    <row r="196" spans="5:5">
+      <c r="E196" s="9"/>
+    </row>
+    <row r="197" spans="5:5">
+      <c r="E197" s="9"/>
+    </row>
+    <row r="198" spans="5:5">
+      <c r="E198" s="9"/>
+    </row>
+    <row r="199" spans="5:5">
+      <c r="E199" s="9"/>
+    </row>
+    <row r="200" spans="5:5">
+      <c r="E200" s="9"/>
+    </row>
+    <row r="201" spans="5:5">
+      <c r="E201" s="9"/>
+    </row>
+    <row r="202" spans="5:5">
+      <c r="E202" s="9"/>
+    </row>
+    <row r="203" spans="5:5">
+      <c r="E203" s="9"/>
+    </row>
+    <row r="204" spans="5:5">
+      <c r="E204" s="9"/>
+    </row>
+    <row r="205" spans="5:5">
+      <c r="E205" s="9"/>
+    </row>
+    <row r="206" spans="5:5">
+      <c r="E206" s="9"/>
+    </row>
+    <row r="207" spans="5:5">
+      <c r="E207" s="9"/>
+    </row>
+    <row r="208" spans="5:5">
+      <c r="E208" s="9"/>
+    </row>
+    <row r="209" spans="5:5">
+      <c r="E209" s="9"/>
+    </row>
+    <row r="210" spans="5:5">
+      <c r="E210" s="9"/>
+    </row>
+    <row r="211" spans="5:5">
+      <c r="E211" s="9"/>
+    </row>
+    <row r="212" spans="5:5">
+      <c r="E212" s="9"/>
+    </row>
+    <row r="213" spans="5:5">
+      <c r="E213" s="9"/>
+    </row>
+    <row r="214" spans="5:5">
+      <c r="E214" s="9"/>
+    </row>
+    <row r="215" spans="5:5">
+      <c r="E215" s="9"/>
+    </row>
+    <row r="216" spans="5:5">
+      <c r="E216" s="9"/>
+    </row>
+    <row r="217" spans="5:5">
+      <c r="E217" s="9"/>
+    </row>
+    <row r="218" spans="5:5">
+      <c r="E218" s="9"/>
+    </row>
+    <row r="219" spans="5:5">
+      <c r="E219" s="9"/>
+    </row>
+    <row r="220" spans="5:5">
+      <c r="E220" s="9"/>
+    </row>
+    <row r="221" spans="5:5">
+      <c r="E221" s="9"/>
+    </row>
+    <row r="222" spans="5:5">
+      <c r="E222" s="9"/>
+    </row>
+    <row r="223" spans="5:5">
+      <c r="E223" s="9"/>
+    </row>
+    <row r="224" spans="5:5">
+      <c r="E224" s="9"/>
+    </row>
+    <row r="225" spans="5:5">
+      <c r="E225" s="9"/>
+    </row>
+    <row r="226" spans="5:5">
+      <c r="E226" s="9"/>
+    </row>
+    <row r="227" spans="5:5">
+      <c r="E227" s="9"/>
+    </row>
+    <row r="228" spans="5:5">
+      <c r="E228" s="9"/>
+    </row>
+    <row r="229" spans="5:5">
+      <c r="E229" s="9"/>
+    </row>
+    <row r="230" spans="5:5">
+      <c r="E230" s="9"/>
+    </row>
+    <row r="231" spans="5:5">
+      <c r="E231" s="9"/>
+    </row>
+    <row r="232" spans="5:5">
+      <c r="E232" s="9"/>
+    </row>
+    <row r="233" spans="5:5">
+      <c r="E233" s="9"/>
+    </row>
+    <row r="234" spans="5:5">
+      <c r="E234" s="9"/>
+    </row>
+    <row r="235" spans="5:5">
+      <c r="E235" s="9"/>
+    </row>
+    <row r="236" spans="5:5">
+      <c r="E236" s="9"/>
+    </row>
+    <row r="237" spans="5:5">
+      <c r="E237" s="9"/>
+    </row>
+    <row r="238" spans="5:5">
+      <c r="E238" s="9"/>
+    </row>
+    <row r="239" spans="5:5">
+      <c r="E239" s="9"/>
+    </row>
+    <row r="240" spans="5:5">
+      <c r="E240" s="9"/>
+    </row>
+    <row r="241" spans="5:5">
+      <c r="E241" s="9"/>
+    </row>
+    <row r="242" spans="5:5">
+      <c r="E242" s="9"/>
+    </row>
+    <row r="243" spans="5:5">
+      <c r="E243" s="9"/>
+    </row>
+    <row r="244" spans="5:5">
+      <c r="E244" s="9"/>
+    </row>
+    <row r="245" spans="5:5">
+      <c r="E245" s="9"/>
+    </row>
+    <row r="246" spans="5:5">
+      <c r="E246" s="9"/>
+    </row>
+    <row r="247" spans="5:5">
+      <c r="E247" s="9"/>
+    </row>
+    <row r="248" spans="5:5">
+      <c r="E248" s="9"/>
+    </row>
+    <row r="249" spans="5:5">
+      <c r="E249" s="9"/>
+    </row>
+    <row r="250" spans="5:5">
+      <c r="E250" s="9"/>
+    </row>
+    <row r="251" spans="5:5">
+      <c r="E251" s="9"/>
+    </row>
+    <row r="252" spans="5:5">
+      <c r="E252" s="9"/>
+    </row>
+    <row r="253" spans="5:5">
+      <c r="E253" s="9"/>
+    </row>
+    <row r="254" spans="5:5">
+      <c r="E254" s="9"/>
+    </row>
+    <row r="255" spans="5:5">
+      <c r="E255" s="9"/>
+    </row>
+    <row r="256" spans="5:5">
+      <c r="E256" s="9"/>
+    </row>
+    <row r="257" spans="5:5">
+      <c r="E257" s="9"/>
+    </row>
+    <row r="258" spans="5:5">
+      <c r="E258" s="9"/>
+    </row>
+    <row r="259" spans="5:5">
+      <c r="E259" s="9"/>
+    </row>
+    <row r="260" spans="5:5">
+      <c r="E260" s="9"/>
+    </row>
+    <row r="261" spans="5:5">
+      <c r="E261" s="9"/>
+    </row>
+    <row r="262" spans="5:5">
+      <c r="E262" s="9"/>
+    </row>
+    <row r="263" spans="5:5">
+      <c r="E263" s="9"/>
+    </row>
+    <row r="264" spans="5:5">
+      <c r="E264" s="9"/>
+    </row>
+    <row r="265" spans="5:5">
+      <c r="E265" s="9"/>
+    </row>
+    <row r="266" spans="5:5">
+      <c r="E266" s="9"/>
+    </row>
+    <row r="267" spans="5:5">
+      <c r="E267" s="9"/>
+    </row>
+    <row r="268" spans="5:5">
+      <c r="E268" s="9"/>
+    </row>
+    <row r="269" spans="5:5">
+      <c r="E269" s="9"/>
+    </row>
+    <row r="270" spans="5:5">
+      <c r="E270" s="9"/>
+    </row>
+    <row r="271" spans="5:5">
+      <c r="E271" s="9"/>
+    </row>
+    <row r="272" spans="5:5">
+      <c r="E272" s="9"/>
+    </row>
+    <row r="273" spans="5:5">
+      <c r="E273" s="9"/>
+    </row>
+    <row r="274" spans="5:5">
+      <c r="E274" s="9"/>
+    </row>
+    <row r="275" spans="5:5">
+      <c r="E275" s="9"/>
+    </row>
+    <row r="276" spans="5:5">
+      <c r="E276" s="9"/>
+    </row>
+    <row r="277" spans="5:5">
+      <c r="E277" s="9"/>
+    </row>
+    <row r="278" spans="5:5">
+      <c r="E278" s="9"/>
+    </row>
+    <row r="279" spans="5:5">
+      <c r="E279" s="9"/>
+    </row>
+    <row r="280" spans="5:5">
+      <c r="E280" s="9"/>
+    </row>
+    <row r="281" spans="5:5">
+      <c r="E281" s="9"/>
+    </row>
+    <row r="282" spans="5:5">
+      <c r="E282" s="9"/>
+    </row>
+    <row r="283" spans="5:5">
+      <c r="E283" s="9"/>
+    </row>
+    <row r="284" spans="5:5">
+      <c r="E284" s="9"/>
+    </row>
+    <row r="285" spans="5:5">
+      <c r="E285" s="9"/>
+    </row>
+    <row r="286" spans="5:5">
+      <c r="E286" s="9"/>
+    </row>
+    <row r="287" spans="5:5">
+      <c r="E287" s="9"/>
+    </row>
+    <row r="288" spans="5:5">
+      <c r="E288" s="9"/>
+    </row>
+    <row r="289" spans="5:5">
+      <c r="E289" s="9"/>
+    </row>
+    <row r="290" spans="5:5">
+      <c r="E290" s="9"/>
+    </row>
+    <row r="291" spans="5:5">
+      <c r="E291" s="9"/>
+    </row>
+    <row r="292" spans="5:5">
+      <c r="E292" s="9"/>
+    </row>
+    <row r="293" spans="5:5">
+      <c r="E293" s="9"/>
+    </row>
+    <row r="294" spans="5:5">
+      <c r="E294" s="9"/>
+    </row>
+    <row r="295" spans="5:5">
+      <c r="E295" s="9"/>
+    </row>
+    <row r="296" spans="5:5">
+      <c r="E296" s="9"/>
+    </row>
+    <row r="297" spans="5:5">
+      <c r="E297" s="9"/>
+    </row>
+    <row r="298" spans="5:5">
+      <c r="E298" s="9"/>
+    </row>
+    <row r="299" spans="5:5">
+      <c r="E299" s="9"/>
+    </row>
+    <row r="300" spans="5:5">
+      <c r="E300" s="9"/>
+    </row>
+    <row r="301" spans="5:5">
+      <c r="E301" s="9"/>
+    </row>
+    <row r="302" spans="5:5">
+      <c r="E302" s="9"/>
+    </row>
+    <row r="303" spans="5:5">
+      <c r="E303" s="9"/>
+    </row>
+    <row r="304" spans="5:5">
+      <c r="E304" s="9"/>
+    </row>
+    <row r="305" spans="5:5">
+      <c r="E305" s="9"/>
+    </row>
+    <row r="306" spans="5:5">
+      <c r="E306" s="9"/>
+    </row>
+    <row r="307" spans="5:5">
+      <c r="E307" s="9"/>
+    </row>
+    <row r="308" spans="5:5">
+      <c r="E308" s="9"/>
+    </row>
+    <row r="309" spans="5:5">
+      <c r="E309" s="9"/>
+    </row>
+    <row r="310" spans="5:5">
+      <c r="E310" s="9"/>
+    </row>
+    <row r="311" spans="5:5">
+      <c r="E311" s="9"/>
+    </row>
+    <row r="312" spans="5:5">
+      <c r="E312" s="9"/>
+    </row>
+    <row r="313" spans="5:5">
+      <c r="E313" s="9"/>
+    </row>
+    <row r="314" spans="5:5">
+      <c r="E314" s="9"/>
+    </row>
+    <row r="315" spans="5:5">
+      <c r="E315" s="9"/>
+    </row>
+    <row r="316" spans="5:5">
+      <c r="E316" s="9"/>
+    </row>
+    <row r="317" spans="5:5">
+      <c r="E317" s="9"/>
+    </row>
+    <row r="318" spans="5:5">
+      <c r="E318" s="9"/>
+    </row>
+    <row r="319" spans="5:5">
+      <c r="E319" s="9"/>
+    </row>
+    <row r="320" spans="5:5">
+      <c r="E320" s="9"/>
+    </row>
+    <row r="321" spans="5:5">
+      <c r="E321" s="9"/>
+    </row>
+    <row r="322" spans="5:5">
+      <c r="E322" s="9"/>
+    </row>
+    <row r="323" spans="5:5">
+      <c r="E323" s="9"/>
+    </row>
+    <row r="324" spans="5:5">
+      <c r="E324" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="E4:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -178,7 +178,7 @@
     <t>Chapter 6--&gt;2nd,4th</t>
   </si>
   <si>
-    <t>Chapter 6 --&gt; 2nd</t>
+    <t>Chapter 6 --&gt; 2nd-3rd</t>
   </si>
 </sst>
 </file>
@@ -538,14 +538,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -900,8 +900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -986,7 +986,7 @@
       <c r="D4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="31" t="s">
         <v>35</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -1015,8 +1015,8 @@
       <c r="D5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29" t="s">
+      <c r="E5" s="31"/>
+      <c r="F5" s="28" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -1042,7 +1042,7 @@
       <c r="D6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1067,7 +1067,7 @@
       <c r="D7" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="28"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="3" t="s">
         <v>31</v>
       </c>
@@ -1092,7 +1092,7 @@
       <c r="D8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="3" t="s">
         <v>32</v>
       </c>
@@ -1115,7 +1115,7 @@
       <c r="D9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="28"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="3" t="s">
         <v>38</v>
       </c>
@@ -1136,7 +1136,7 @@
       <c r="D10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="3" t="s">
         <v>43</v>
       </c>
@@ -1175,18 +1175,18 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1"/>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="20" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="29" t="s">
         <v>53</v>
       </c>
       <c r="H13" s="20" t="s">

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -169,9 +169,6 @@
     <t>May</t>
   </si>
   <si>
-    <t>Chapter 4--&gt;2nd-4th</t>
-  </si>
-  <si>
     <t>Chapter 7--&gt;1st,3rd</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>Chapter 6 --&gt; 2nd-3rd</t>
+  </si>
+  <si>
+    <t>Chapter 4--&gt;2nd-5th</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -513,9 +513,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -900,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -950,21 +947,21 @@
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" customFormat="1" ht="21">
-      <c r="B3" s="24"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="23" t="s">
         <v>21</v>
       </c>
       <c r="I3" s="16"/>
@@ -983,10 +980,10 @@
       <c r="C4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>35</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -1012,11 +1009,11 @@
       <c r="C5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="28" t="s">
+      <c r="E5" s="30"/>
+      <c r="F5" s="27" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -1039,10 +1036,10 @@
       <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1053,7 +1050,7 @@
         <v>29</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="21" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="1"/>
@@ -1064,10 +1061,10 @@
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="31"/>
+      <c r="E7" s="30"/>
       <c r="F7" s="3" t="s">
         <v>31</v>
       </c>
@@ -1092,7 +1089,7 @@
       <c r="D8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="31"/>
+      <c r="E8" s="30"/>
       <c r="F8" s="3" t="s">
         <v>32</v>
       </c>
@@ -1115,7 +1112,7 @@
       <c r="D9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="31"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="3" t="s">
         <v>38</v>
       </c>
@@ -1136,14 +1133,14 @@
       <c r="D10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="31"/>
+      <c r="E10" s="30"/>
       <c r="F10" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="23"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
       <c r="M10" s="4"/>
@@ -1164,7 +1161,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="1"/>
@@ -1175,22 +1172,22 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1"/>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>49</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="20" t="s">
+      <c r="G13" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>52</v>
       </c>
       <c r="I13" s="1"/>
     </row>

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -172,13 +172,13 @@
     <t>Chapter 7--&gt;1st,3rd</t>
   </si>
   <si>
-    <t>Chapter 6--&gt;2nd,4th</t>
-  </si>
-  <si>
     <t>Chapter 6 --&gt; 2nd-3rd</t>
   </si>
   <si>
     <t>Chapter 4--&gt;2nd-5th</t>
+  </si>
+  <si>
+    <t>Chapter 6--&gt;2nd,17th</t>
   </si>
 </sst>
 </file>
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1177,17 +1177,17 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I13" s="1"/>
     </row>

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>current affairs</t>
   </si>
@@ -179,6 +179,24 @@
   </si>
   <si>
     <t>Chapter 6--&gt;2nd,17th</t>
+  </si>
+  <si>
+    <t>Chapter 5--&gt;15th-20th</t>
+  </si>
+  <si>
+    <t>Chapter 6 --&gt; 22nd-25th</t>
+  </si>
+  <si>
+    <t>Chapter 7 --&gt; 19th-24th</t>
+  </si>
+  <si>
+    <t>Chapter 7--&gt; 21st,23rd</t>
+  </si>
+  <si>
+    <t>Chapter 8--&gt;16th,18th,20th</t>
+  </si>
+  <si>
+    <t>chapter 9--&gt;22nd,24th</t>
   </si>
 </sst>
 </file>
@@ -467,7 +485,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -543,6 +561,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -897,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1183,7 +1211,7 @@
       <c r="F13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="34" t="s">
         <v>51</v>
       </c>
       <c r="H13" s="3" t="s">
@@ -1191,24 +1219,36 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" ht="30">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="F14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>57</v>
+      </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" ht="30">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="33" t="s">
+        <v>55</v>
+      </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="32" t="s">
+        <v>59</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1217,7 +1257,7 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="31"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
   <si>
     <t>current affairs</t>
   </si>
@@ -27,12 +27,6 @@
     <t>Economics</t>
   </si>
   <si>
-    <t>10-11am</t>
-  </si>
-  <si>
-    <t>11-12.45</t>
-  </si>
-  <si>
     <t>Modern India</t>
   </si>
   <si>
@@ -118,9 +112,6 @@
   </si>
   <si>
     <t xml:space="preserve">chapter 4--&gt;12th - 13th </t>
-  </si>
-  <si>
-    <t>2.00-5.00</t>
   </si>
   <si>
     <t>office work
@@ -187,16 +178,28 @@
     <t>Chapter 6 --&gt; 22nd-25th</t>
   </si>
   <si>
-    <t>Chapter 7 --&gt; 19th-24th</t>
-  </si>
-  <si>
-    <t>Chapter 7--&gt; 21st,23rd</t>
-  </si>
-  <si>
     <t>Chapter 8--&gt;16th,18th,20th</t>
   </si>
   <si>
     <t>chapter 9--&gt;22nd,24th</t>
+  </si>
+  <si>
+    <t>Chapter 7 --&gt; 26th-27th</t>
+  </si>
+  <si>
+    <t>9.30-11am</t>
+  </si>
+  <si>
+    <t>11.00-5.00</t>
+  </si>
+  <si>
+    <t>Chapter 7 --&gt; 19th-25th</t>
+  </si>
+  <si>
+    <t>Chapter 7--&gt; 21st,23rd,25th</t>
+  </si>
+  <si>
+    <t>Chapter 10 --&gt; 26th,28th</t>
   </si>
 </sst>
 </file>
@@ -485,7 +488,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -512,9 +515,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -558,19 +558,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -925,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -948,53 +942,53 @@
     <row r="1" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:13" customFormat="1" ht="21.75" thickBot="1">
       <c r="B2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>3</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C2" s="13"/>
       <c r="D2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>34</v>
+        <v>56</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="18" t="s">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="1"/>
     </row>
     <row r="3" spans="1:13" customFormat="1" ht="21">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="25" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="19" t="s">
-        <v>18</v>
+      <c r="G3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="2"/>
@@ -1003,29 +997,29 @@
     <row r="4" spans="1:13" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>35</v>
+      <c r="D4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>32</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="2"/>
@@ -1035,24 +1029,24 @@
       <c r="A5" s="1"/>
       <c r="B5" s="8"/>
       <c r="C5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="27" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="26" t="s">
+        <v>10</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="2"/>
@@ -1062,24 +1056,24 @@
       <c r="A6" s="1"/>
       <c r="B6" s="8"/>
       <c r="C6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="30"/>
+        <v>23</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="31"/>
       <c r="F6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="J6" s="21" t="s">
-        <v>22</v>
+      <c r="J6" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="2"/>
@@ -1089,22 +1083,22 @@
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
-      <c r="D7" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="30"/>
+      <c r="D7" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="31"/>
       <c r="F7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="2"/>
@@ -1115,17 +1109,17 @@
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="30"/>
+        <v>33</v>
+      </c>
+      <c r="E8" s="31"/>
       <c r="F8" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="11"/>
@@ -1138,14 +1132,14 @@
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="30"/>
+        <v>34</v>
+      </c>
+      <c r="E9" s="31"/>
       <c r="F9" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="8"/>
@@ -1159,16 +1153,16 @@
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="22"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="4"/>
       <c r="L10" s="5"/>
       <c r="M10" s="4"/>
@@ -1178,7 +1172,7 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1"/>
       <c r="G11" s="1"/>
@@ -1189,8 +1183,8 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="20" t="s">
-        <v>48</v>
+      <c r="D12" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1200,22 +1194,22 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1"/>
-      <c r="B13" s="29" t="s">
-        <v>49</v>
+      <c r="B13" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="I13" s="1"/>
     </row>
@@ -1224,17 +1218,17 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="H14" s="28" t="s">
-        <v>57</v>
+      <c r="H14" s="27" t="s">
+        <v>59</v>
       </c>
       <c r="I14" s="1"/>
     </row>
@@ -1242,24 +1236,28 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="33" t="s">
-        <v>55</v>
+      <c r="D15" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="32" t="s">
-        <v>59</v>
+      <c r="F15" s="19" t="s">
+        <v>54</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" ht="30">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="31"/>
+      <c r="D16" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="29" t="s">
+        <v>60</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
   <si>
     <t>current affairs</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Chapter 10 --&gt; 26th,28th</t>
+  </si>
+  <si>
+    <t>Chapter 8 --&gt;27th,29th</t>
   </si>
 </sst>
 </file>
@@ -920,7 +923,7 @@
   <dimension ref="A1:M324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1227,7 +1230,7 @@
       <c r="G14" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="H14" s="27" t="s">
+      <c r="H14" s="30" t="s">
         <v>59</v>
       </c>
       <c r="I14" s="1"/>
@@ -1244,7 +1247,9 @@
         <v>54</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="27" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:13" ht="30">

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M324"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1227,7 +1227,7 @@
       <c r="F14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="29" t="s">
+      <c r="G14" s="19" t="s">
         <v>58</v>
       </c>
       <c r="H14" s="30" t="s">

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>current affairs</t>
   </si>
@@ -184,9 +184,6 @@
     <t>9.30-11am</t>
   </si>
   <si>
-    <t>11.00-5.00</t>
-  </si>
-  <si>
     <t>Chapter 7 --&gt; 19th-25th</t>
   </si>
   <si>
@@ -222,6 +219,24 @@
   </si>
   <si>
     <t>Chapter 9 --&gt;28th</t>
+  </si>
+  <si>
+    <t>Chapter 10--&gt;28th</t>
+  </si>
+  <si>
+    <t>Chapter 11--&gt;28th</t>
+  </si>
+  <si>
+    <t>Chapter 12--&gt;29th</t>
+  </si>
+  <si>
+    <t>11.00-6.30</t>
+  </si>
+  <si>
+    <t>Chapter 9 --&gt; 29th</t>
+  </si>
+  <si>
+    <t>Chapter 10 --&gt; 30th</t>
   </si>
 </sst>
 </file>
@@ -499,7 +514,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,9 +560,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -576,6 +588,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -933,7 +949,7 @@
   <dimension ref="A1:O324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -968,7 +984,7 @@
         <v>54</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>5</v>
@@ -979,8 +995,8 @@
       <c r="G2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="27" t="s">
-        <v>60</v>
+      <c r="H2" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1008,10 +1024,10 @@
       <c r="G3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="30" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="1"/>
@@ -1031,19 +1047,19 @@
       <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="28" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -1064,7 +1080,7 @@
       <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="19"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="16" t="s">
         <v>10</v>
       </c>
@@ -1074,8 +1090,8 @@
       <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="30" t="s">
-        <v>59</v>
+      <c r="H5" s="29" t="s">
+        <v>58</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="1"/>
@@ -1093,14 +1109,14 @@
       <c r="C6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="21" t="s">
         <v>26</v>
       </c>
       <c r="H6" s="1"/>
@@ -1118,14 +1134,14 @@
       <c r="C7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="19"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="21" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="1"/>
@@ -1143,14 +1159,14 @@
       <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="19"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>37</v>
       </c>
       <c r="H8" s="5"/>
@@ -1168,7 +1184,7 @@
       <c r="C9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="2" t="s">
         <v>33</v>
       </c>
@@ -1191,12 +1207,12 @@
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="19"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="23"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="5"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1214,7 +1230,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="24"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1233,7 +1249,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="24"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1258,7 +1274,7 @@
       <c r="F13" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="21" t="s">
         <v>48</v>
       </c>
       <c r="H13" s="1"/>
@@ -1281,10 +1297,10 @@
         <v>51</v>
       </c>
       <c r="F14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="24" t="s">
         <v>56</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>57</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1306,10 +1322,10 @@
         <v>52</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="25" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>60</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1328,13 +1344,13 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>61</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1349,12 +1365,14 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="24"/>
+      <c r="F17" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="23"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1367,13 +1385,17 @@
     <row r="18" spans="1:15" ht="30">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="24"/>
+      <c r="E18" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="23"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1386,13 +1408,17 @@
     <row r="19" spans="1:15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="C19" s="31" t="s">
+        <v>72</v>
+      </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="24"/>
+      <c r="E19" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="23"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1409,7 +1435,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="24"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1426,7 +1452,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="24"/>
+      <c r="G21" s="23"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1443,7 +1469,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="24"/>
+      <c r="G22" s="23"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1460,7 +1486,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="24"/>
+      <c r="G23" s="23"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1477,7 +1503,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="24"/>
+      <c r="G24" s="23"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1494,7 +1520,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="24"/>
+      <c r="G25" s="23"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1511,7 +1537,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="24"/>
+      <c r="G26" s="23"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1528,7 +1554,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="24"/>
+      <c r="G27" s="23"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -514,7 +514,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -574,7 +574,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -948,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O324"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -995,7 +994,7 @@
       <c r="G2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="25" t="s">
         <v>59</v>
       </c>
       <c r="I2" s="1"/>
@@ -1024,10 +1023,10 @@
       <c r="G3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="29" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="1"/>
@@ -1047,7 +1046,7 @@
       <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="19" t="s">
@@ -1059,7 +1058,7 @@
       <c r="G4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="27" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -1080,7 +1079,7 @@
       <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="16" t="s">
         <v>10</v>
       </c>
@@ -1090,7 +1089,7 @@
       <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="28" t="s">
         <v>58</v>
       </c>
       <c r="I5" s="5"/>
@@ -1109,7 +1108,7 @@
       <c r="C6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1134,7 +1133,7 @@
       <c r="C7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1159,7 +1158,7 @@
       <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1184,7 +1183,7 @@
       <c r="C9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="2" t="s">
         <v>33</v>
       </c>
@@ -1207,7 +1206,7 @@
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="2" t="s">
         <v>38</v>
       </c>
@@ -1349,7 +1348,7 @@
       <c r="F16" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="24" t="s">
         <v>61</v>
       </c>
       <c r="H16" s="1"/>
@@ -1408,14 +1407,14 @@
     <row r="19" spans="1:15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="30" t="s">
         <v>72</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="31" t="s">
+      <c r="F19" s="30" t="s">
         <v>69</v>
       </c>
       <c r="G19" s="23"/>

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
   <si>
     <t>current affairs</t>
   </si>
@@ -237,6 +237,15 @@
   </si>
   <si>
     <t>Chapter 10 --&gt; 30th</t>
+  </si>
+  <si>
+    <t>Chapter 11--&gt;31st</t>
+  </si>
+  <si>
+    <t>Chapter 13--&gt;31st</t>
+  </si>
+  <si>
+    <t>chapter 10--&gt;31st</t>
   </si>
 </sst>
 </file>
@@ -514,7 +523,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -593,6 +602,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -947,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1371,7 +1381,9 @@
       <c r="F17" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="23"/>
+      <c r="G17" s="32" t="s">
+        <v>75</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1407,14 +1419,14 @@
     <row r="19" spans="1:15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="18" t="s">
         <v>72</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="18" t="s">
         <v>69</v>
       </c>
       <c r="G19" s="23"/>
@@ -1430,10 +1442,14 @@
     <row r="20" spans="1:15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="30" t="s">
+        <v>73</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="30" t="s">
+        <v>74</v>
+      </c>
       <c r="G20" s="23"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>current affairs</t>
   </si>
@@ -246,6 +246,18 @@
   </si>
   <si>
     <t>chapter 10--&gt;31st</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Chapter 12,13--&gt;1st</t>
+  </si>
+  <si>
+    <t>Chapter 2--&gt;1st</t>
+  </si>
+  <si>
+    <t>Class VII --&gt; 3rd,4th</t>
   </si>
 </sst>
 </file>
@@ -599,10 +611,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -957,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1056,7 +1068,7 @@
       <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="32" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="19" t="s">
@@ -1089,7 +1101,7 @@
       <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="16" t="s">
         <v>10</v>
       </c>
@@ -1118,7 +1130,7 @@
       <c r="C6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1128,7 +1140,9 @@
       <c r="G6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1143,7 +1157,7 @@
       <c r="C7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="31"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1168,7 +1182,7 @@
       <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1193,7 +1207,7 @@
       <c r="C9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="31"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="2" t="s">
         <v>33</v>
       </c>
@@ -1216,7 +1230,7 @@
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="31"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="2" t="s">
         <v>38</v>
       </c>
@@ -1381,7 +1395,7 @@
       <c r="F17" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="31" t="s">
         <v>75</v>
       </c>
       <c r="H17" s="1"/>
@@ -1423,7 +1437,7 @@
         <v>72</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="2" t="s">
         <v>65</v>
       </c>
       <c r="F19" s="18" t="s">
@@ -1442,7 +1456,7 @@
     <row r="20" spans="1:15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="18" t="s">
         <v>73</v>
       </c>
       <c r="D20" s="1"/>
@@ -1461,11 +1475,17 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="1"/>
+      <c r="A21" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="30" t="s">
+        <v>77</v>
+      </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="30" t="s">
+        <v>78</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="23"/>
       <c r="H21" s="1"/>
@@ -1587,6 +1607,14 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1"/>
@@ -1596,6 +1624,14 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1"/>
@@ -1605,6 +1641,14 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1"/>
@@ -1614,6 +1658,14 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15">
       <c r="D32" s="3"/>

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>current affairs</t>
   </si>
@@ -251,13 +251,22 @@
     <t>June</t>
   </si>
   <si>
-    <t>Chapter 12,13--&gt;1st</t>
-  </si>
-  <si>
     <t>Chapter 2--&gt;1st</t>
   </si>
   <si>
     <t>Class VII --&gt; 3rd,4th</t>
+  </si>
+  <si>
+    <t>Chapter 12--&gt;1st</t>
+  </si>
+  <si>
+    <t>Chapter 13--&gt;2nd</t>
+  </si>
+  <si>
+    <t>Chapter 13--&gt;1st</t>
+  </si>
+  <si>
+    <t>Chapter 11--&gt;2nd</t>
   </si>
 </sst>
 </file>
@@ -969,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1141,7 +1150,7 @@
         <v>26</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1395,7 +1404,7 @@
       <c r="F17" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="31" t="s">
+      <c r="G17" s="24" t="s">
         <v>75</v>
       </c>
       <c r="H17" s="1"/>
@@ -1479,15 +1488,19 @@
         <v>76</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="30" t="s">
-        <v>77</v>
+      <c r="C21" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="23"/>
+        <v>77</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>82</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1500,7 +1513,9 @@
     <row r="22" spans="1:15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="30" t="s">
+        <v>80</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
   <si>
     <t>current affairs</t>
   </si>
@@ -251,9 +251,6 @@
     <t>June</t>
   </si>
   <si>
-    <t>Chapter 2--&gt;1st</t>
-  </si>
-  <si>
     <t>Class VII --&gt; 3rd,4th</t>
   </si>
   <si>
@@ -267,6 +264,15 @@
   </si>
   <si>
     <t>Chapter 11--&gt;2nd</t>
+  </si>
+  <si>
+    <t>Chapter 14--&gt;2nd</t>
+  </si>
+  <si>
+    <t>Chapter 2--&gt;1st,3rd</t>
+  </si>
+  <si>
+    <t>Chapter 14--&gt;3rd</t>
   </si>
 </sst>
 </file>
@@ -978,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1150,7 +1156,7 @@
         <v>26</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1470,7 +1476,7 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="18" t="s">
         <v>74</v>
       </c>
       <c r="G20" s="23"/>
@@ -1489,17 +1495,17 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="31" t="s">
         <v>81</v>
-      </c>
-      <c r="G21" s="31" t="s">
-        <v>82</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1513,12 +1519,14 @@
     <row r="22" spans="1:15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="30" t="s">
-        <v>80</v>
+      <c r="C22" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="30" t="s">
+        <v>82</v>
+      </c>
       <c r="G22" s="23"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1532,7 +1540,9 @@
     <row r="23" spans="1:15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="30" t="s">
+        <v>84</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
   <si>
     <t>current affairs</t>
   </si>
@@ -251,9 +251,6 @@
     <t>June</t>
   </si>
   <si>
-    <t>Class VII --&gt; 3rd,4th</t>
-  </si>
-  <si>
     <t>Chapter 12--&gt;1st</t>
   </si>
   <si>
@@ -282,6 +279,30 @@
   </si>
   <si>
     <t>Chapter 12--&gt;4th</t>
+  </si>
+  <si>
+    <t>Chapter 16--&gt;4th</t>
+  </si>
+  <si>
+    <t>Chapter 15--&gt;2nd</t>
+  </si>
+  <si>
+    <t>Chapter 13--&gt;6th</t>
+  </si>
+  <si>
+    <t>Chapter 17--&gt;5th</t>
+  </si>
+  <si>
+    <t>Class VII(Chapter 1-10) --&gt; 3rd,4th</t>
+  </si>
+  <si>
+    <t>Class VII(Chapter 10-19) --&gt; 9th,10th</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Prev year question</t>
   </si>
 </sst>
 </file>
@@ -559,7 +580,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -628,20 +649,21 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -996,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1075,7 +1097,7 @@
       <c r="H3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="28" t="s">
         <v>19</v>
       </c>
       <c r="J3" s="1"/>
@@ -1095,7 +1117,7 @@
       <c r="C4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="33" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="19" t="s">
@@ -1128,7 +1150,7 @@
       <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="16" t="s">
         <v>10</v>
       </c>
@@ -1138,9 +1160,7 @@
       <c r="G5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="28" t="s">
-        <v>58</v>
-      </c>
+      <c r="H5" s="3"/>
       <c r="I5" s="5"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1157,7 +1177,7 @@
       <c r="C6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1167,9 +1187,7 @@
       <c r="G6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="20" t="s">
-        <v>77</v>
-      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1184,7 +1202,7 @@
       <c r="C7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="33"/>
       <c r="E7" s="2" t="s">
         <v>27</v>
       </c>
@@ -1209,7 +1227,7 @@
       <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1234,7 +1252,7 @@
       <c r="C9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="2" t="s">
         <v>33</v>
       </c>
@@ -1257,7 +1275,7 @@
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="32"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="2" t="s">
         <v>38</v>
       </c>
@@ -1327,7 +1345,9 @@
       <c r="G13" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="32" t="s">
+        <v>58</v>
+      </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1507,19 +1527,21 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="33" t="s">
-        <v>86</v>
+      <c r="E21" s="31" t="s">
+        <v>85</v>
       </c>
       <c r="F21" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1528,21 +1550,23 @@
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" ht="30">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="H22" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1555,14 +1579,16 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="30" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="23"/>
+      <c r="F23" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>89</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1576,11 +1602,13 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="18" t="s">
+        <v>87</v>
+      </c>
       <c r="G24" s="23"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1595,11 +1623,13 @@
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="29" t="s">
+        <v>90</v>
+      </c>
       <c r="G25" s="23"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1613,7 +1643,9 @@
     <row r="26" spans="1:15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="C26" s="34" t="s">
+        <v>94</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1635,7 +1667,9 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="23"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -16,20 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
   <si>
     <t>current affairs</t>
   </si>
   <si>
-    <t>History</t>
-  </si>
-  <si>
     <t>Economics</t>
   </si>
   <si>
-    <t>Modern India</t>
-  </si>
-  <si>
     <t xml:space="preserve"> NCERT-&gt;class XI</t>
   </si>
   <si>
@@ -45,9 +39,6 @@
     <t>Laxmikant</t>
   </si>
   <si>
-    <t>chapter 1--&gt;3rd - 5th</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chapter 1--&gt;4th </t>
   </si>
   <si>
@@ -85,12 +76,6 @@
   </si>
   <si>
     <t>https://unacademy.com/lesson/3rd-april-2017-daily-mcqs-on-current-affairs-for-government-exams-upsc-cseias-exam/CPZHFQM3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">chapter 2--&gt;6th - 10th </t>
-  </si>
-  <si>
-    <t xml:space="preserve">chapter 3--&gt;11th - 13th </t>
   </si>
   <si>
     <t>Chapter 2--&gt;9th</t>
@@ -112,9 +97,6 @@
 :(</t>
   </si>
   <si>
-    <t>Not to read anymore</t>
-  </si>
-  <si>
     <t>Spectrum</t>
   </si>
   <si>
@@ -303,6 +285,42 @@
   </si>
   <si>
     <t>Prev year question</t>
+  </si>
+  <si>
+    <t>Chapter 3--&gt;7th</t>
+  </si>
+  <si>
+    <t>Chapter 14--&gt; 8th</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11th Class ( Tamil Nadu board)</t>
+  </si>
+  <si>
+    <t>Chapter 1--&gt;7th</t>
+  </si>
+  <si>
+    <t>Modern History</t>
+  </si>
+  <si>
+    <t>Ancient History</t>
+  </si>
+  <si>
+    <t>Chapter 2--&gt;8th</t>
+  </si>
+  <si>
+    <t>Chapter 3--&gt;9th</t>
+  </si>
+  <si>
+    <t>Chapter 20--&gt;7th</t>
+  </si>
+  <si>
+    <t>Chapter 18,19--&gt;6th</t>
+  </si>
+  <si>
+    <t>Chapter 4--&gt;9th</t>
+  </si>
+  <si>
+    <t>Chapter 21--&gt;8th</t>
   </si>
 </sst>
 </file>
@@ -356,7 +374,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,12 +413,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -418,7 +430,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -572,6 +584,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -580,14 +618,14 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -597,36 +635,30 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -640,13 +672,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -654,16 +686,46 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -672,63 +734,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1228723</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>209551</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Right Brace 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2686049" y="1247776"/>
-          <a:ext cx="171450" cy="1181099"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1018,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1047,26 +1052,26 @@
     </row>
     <row r="2" spans="1:15" customFormat="1" ht="21.75" thickBot="1">
       <c r="A2" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>59</v>
+        <v>3</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>53</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1082,23 +1087,23 @@
         <v>0</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="28" t="s">
-        <v>19</v>
+      <c r="H3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1109,31 +1114,31 @@
     </row>
     <row r="4" spans="1:15" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="19" t="s">
+      <c r="H4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1145,20 +1150,20 @@
     <row r="5" spans="1:15" customFormat="1" ht="75">
       <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="16" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="36" t="s">
+        <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="5"/>
@@ -1172,20 +1177,20 @@
     <row r="6" spans="1:15" customFormat="1" ht="90">
       <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="37" t="s">
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>21</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="1"/>
@@ -1199,18 +1204,18 @@
     <row r="7" spans="1:15" customFormat="1" ht="30">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="E7" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>29</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1224,18 +1229,16 @@
     <row r="8" spans="1:15" customFormat="1" ht="30">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>37</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="1"/>
@@ -1249,15 +1252,13 @@
     <row r="9" spans="1:15" customFormat="1" ht="30">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="2" t="s">
-        <v>33</v>
+      <c r="C9" s="21"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="37" t="s">
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="5"/>
@@ -1272,15 +1273,13 @@
     <row r="10" spans="1:15" customFormat="1" ht="30">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="2" t="s">
-        <v>38</v>
+      <c r="C10" s="21"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="37" t="s">
+        <v>32</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="22"/>
+      <c r="G10" s="20"/>
       <c r="H10" s="5"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1290,15 +1289,14 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="30">
+    <row r="11" spans="1:15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="23"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="21"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1308,16 +1306,16 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="30">
+    <row r="12" spans="1:15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="43"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="23"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="21"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1327,26 +1325,26 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="17" t="s">
-        <v>44</v>
+    <row r="13" spans="1:15" ht="30">
+      <c r="A13" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="D13" s="43"/>
       <c r="E13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="32" t="s">
-        <v>58</v>
+        <v>39</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>52</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1360,17 +1358,17 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>56</v>
+      <c r="G14" s="22" t="s">
+        <v>50</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1384,18 +1382,18 @@
     <row r="15" spans="1:15" ht="30">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="1"/>
+      <c r="C15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="43"/>
       <c r="E15" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>60</v>
+        <v>46</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>54</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1409,18 +1407,18 @@
     <row r="16" spans="1:15" ht="30">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="1"/>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="43"/>
       <c r="E16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="24" t="s">
-        <v>61</v>
+        <v>51</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>55</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1435,15 +1433,15 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="D17" s="43"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>75</v>
+      <c r="F17" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>69</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1457,17 +1455,17 @@
     <row r="18" spans="1:15" ht="30">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="G18" s="23"/>
+      <c r="C18" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="43"/>
+      <c r="E18" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="21"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1480,17 +1478,17 @@
     <row r="19" spans="1:15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="1"/>
+      <c r="C19" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="43"/>
       <c r="E19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="23"/>
+        <v>59</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="21"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1503,15 +1501,15 @@
     <row r="20" spans="1:15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="1"/>
+      <c r="C20" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="43"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="23"/>
+      <c r="F20" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="21"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1522,25 +1520,25 @@
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" ht="30">
-      <c r="A21" s="17" t="s">
-        <v>76</v>
+      <c r="A21" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="31" t="s">
+      <c r="C21" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="43"/>
+      <c r="E21" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1553,19 +1551,21 @@
     <row r="22" spans="1:15" ht="30">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="24" t="s">
+      <c r="C22" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="43"/>
+      <c r="E22" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="18" t="s">
         <v>86</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>92</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1578,16 +1578,18 @@
     <row r="23" spans="1:15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="43"/>
+      <c r="E23" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="30" t="s">
-        <v>89</v>
+      <c r="G23" s="22" t="s">
+        <v>83</v>
       </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1601,15 +1603,17 @@
     <row r="24" spans="1:15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="1"/>
+      <c r="C24" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="43"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="23"/>
+      <c r="F24" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>90</v>
+      </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1622,15 +1626,15 @@
     <row r="25" spans="1:15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="43"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="23"/>
+      <c r="G25" s="21"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1640,16 +1644,18 @@
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" ht="42">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="43"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="23"/>
+      <c r="F26" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="21"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1659,16 +1665,20 @@
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" ht="30">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="43"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="23"/>
+      <c r="F27" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="21"/>
       <c r="H27" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1680,11 +1690,15 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="43"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="40" t="s">
+        <v>100</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1697,11 +1711,13 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="3"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1714,11 +1730,13 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" s="3"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="38"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1731,9 +1749,9 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1747,102 +1765,307 @@
       <c r="O31" s="1"/>
     </row>
     <row r="32" spans="1:15">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
       <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="4:4">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="4:4">
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="4:4">
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
       <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="4:4">
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
       <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="4:4">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
       <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="4:4">
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
       <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="4:4">
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="4:4">
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
       <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="4:4">
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="4:4">
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="4:4">
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="4:4">
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="4:4">
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="4:4">
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="4:4">
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="4:4">
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="4:4">
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="4:4">
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="4:4">
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="4:4">
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="4:4">
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="4:4">
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="4:4">
+      <c r="E42" s="44"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9">
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="4:4">
+    <row r="56" spans="1:9">
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" spans="1:9">
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="4:4">
+    <row r="58" spans="1:9">
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="4:4">
+    <row r="59" spans="1:9">
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="4:4">
+    <row r="60" spans="1:9">
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="4:4">
+    <row r="61" spans="1:9">
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="4:4">
+    <row r="62" spans="1:9">
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="4:4">
+    <row r="63" spans="1:9">
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="4:4">
+    <row r="64" spans="1:9">
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="4:4">
@@ -2631,7 +2854,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -618,7 +618,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -685,7 +685,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1024,7 +1023,7 @@
   <dimension ref="A1:O324"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1119,13 +1118,13 @@
       <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="34" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="17" t="s">
@@ -1155,8 +1154,8 @@
       <c r="C5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="35" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1182,8 +1181,8 @@
       <c r="C6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="37" t="s">
+      <c r="D6" s="44"/>
+      <c r="E6" s="36" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1204,11 +1203,11 @@
     <row r="7" spans="1:15" customFormat="1" ht="30">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="37" t="s">
+      <c r="D7" s="44"/>
+      <c r="E7" s="36" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1230,8 +1229,8 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="37" t="s">
+      <c r="D8" s="44"/>
+      <c r="E8" s="36" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1253,8 +1252,8 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="21"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="37" t="s">
+      <c r="D9" s="44"/>
+      <c r="E9" s="36" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1274,8 +1273,8 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="21"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="37" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="36" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="5"/>
@@ -1293,9 +1292,9 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="43"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="38"/>
+      <c r="F11" s="37"/>
       <c r="G11" s="21"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1312,9 +1311,9 @@
       <c r="C12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="43"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="38"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="21"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1333,17 +1332,17 @@
       <c r="C13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="43"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="41" t="s">
         <v>40</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="28" t="s">
         <v>52</v>
       </c>
       <c r="I13" s="1"/>
@@ -1360,11 +1359,11 @@
       <c r="C14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="43"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="38" t="s">
         <v>49</v>
       </c>
       <c r="G14" s="22" t="s">
@@ -1385,11 +1384,11 @@
       <c r="C15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="43"/>
+      <c r="D15" s="42"/>
       <c r="E15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="36" t="s">
         <v>57</v>
       </c>
       <c r="G15" s="22" t="s">
@@ -1410,11 +1409,11 @@
       <c r="C16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="43"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="42" t="s">
+      <c r="F16" s="41" t="s">
         <v>60</v>
       </c>
       <c r="G16" s="22" t="s">
@@ -1435,9 +1434,9 @@
       <c r="C17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="43"/>
+      <c r="D17" s="42"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="42" t="s">
+      <c r="F17" s="41" t="s">
         <v>61</v>
       </c>
       <c r="G17" s="22" t="s">
@@ -1458,11 +1457,11 @@
       <c r="C18" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="43"/>
+      <c r="D18" s="42"/>
       <c r="E18" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="41" t="s">
         <v>62</v>
       </c>
       <c r="G18" s="21"/>
@@ -1481,11 +1480,11 @@
       <c r="C19" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="43"/>
+      <c r="D19" s="42"/>
       <c r="E19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="41" t="s">
         <v>63</v>
       </c>
       <c r="G19" s="21"/>
@@ -1504,9 +1503,9 @@
       <c r="C20" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="43"/>
+      <c r="D20" s="42"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="42" t="s">
+      <c r="F20" s="41" t="s">
         <v>68</v>
       </c>
       <c r="G20" s="21"/>
@@ -1527,11 +1526,11 @@
       <c r="C21" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="43"/>
+      <c r="D21" s="42"/>
       <c r="E21" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="41" t="s">
         <v>73</v>
       </c>
       <c r="G21" s="22" t="s">
@@ -1554,11 +1553,11 @@
       <c r="C22" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="43"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="41" t="s">
         <v>75</v>
       </c>
       <c r="G22" s="22" t="s">
@@ -1581,11 +1580,11 @@
       <c r="C23" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="43"/>
+      <c r="D23" s="42"/>
       <c r="E23" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="41" t="s">
         <v>82</v>
       </c>
       <c r="G23" s="22" t="s">
@@ -1606,12 +1605,12 @@
       <c r="C24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="43"/>
+      <c r="D24" s="42"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="22" t="s">
         <v>90</v>
       </c>
       <c r="H24" s="1"/>
@@ -1626,12 +1625,12 @@
     <row r="25" spans="1:15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="43"/>
+      <c r="D25" s="42"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="41" t="s">
         <v>84</v>
       </c>
       <c r="G25" s="21"/>
@@ -1647,12 +1646,12 @@
     <row r="26" spans="1:15" ht="42">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="43"/>
+      <c r="D26" s="42"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="42" t="s">
+      <c r="F26" s="41" t="s">
         <v>98</v>
       </c>
       <c r="G26" s="21"/>
@@ -1668,12 +1667,12 @@
     <row r="27" spans="1:15" ht="30">
       <c r="A27" s="1"/>
       <c r="B27" s="21"/>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="43"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="41" t="s">
         <v>97</v>
       </c>
       <c r="G27" s="21"/>
@@ -1694,9 +1693,9 @@
       <c r="C28" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="43"/>
+      <c r="D28" s="42"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="39" t="s">
         <v>100</v>
       </c>
       <c r="G28" s="1"/>
@@ -1717,7 +1716,7 @@
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="38"/>
+      <c r="F29" s="37"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1736,7 +1735,7 @@
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="38"/>
+      <c r="F30" s="37"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1899,8 +1898,8 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="41"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="40"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -1914,9 +1913,9 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1"/>

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
   <si>
     <t>current affairs</t>
   </si>
@@ -64,12 +64,6 @@
   </si>
   <si>
     <t>geography(Physical)</t>
-  </si>
-  <si>
-    <t>geography(India)</t>
-  </si>
-  <si>
-    <t>ncert(Xi &amp; xii)</t>
   </si>
   <si>
     <t>https://unacademy.com/lesson/3rd-april-2017-daily-summary-and-analysis-of-the-hindu/6QT1Z4WE</t>
@@ -278,12 +272,6 @@
     <t>Class VII(Chapter 1-10) --&gt; 3rd,4th</t>
   </si>
   <si>
-    <t>Class VII(Chapter 10-19) --&gt; 9th,10th</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>Prev year question</t>
   </si>
   <si>
@@ -317,10 +305,37 @@
     <t>Chapter 18,19--&gt;6th</t>
   </si>
   <si>
-    <t>Chapter 4--&gt;9th</t>
-  </si>
-  <si>
     <t>Chapter 21--&gt;8th</t>
+  </si>
+  <si>
+    <t>Chapter 4--&gt;10th</t>
+  </si>
+  <si>
+    <t>Chapter 5--&gt;11th</t>
+  </si>
+  <si>
+    <t>Chapter 4--&gt;9th,11th</t>
+  </si>
+  <si>
+    <t>Chapter22--&gt;9th-12th</t>
+  </si>
+  <si>
+    <t>Chapter 15--&gt; 10th</t>
+  </si>
+  <si>
+    <t>Chapter 16--&gt;12th</t>
+  </si>
+  <si>
+    <t>Class VII(Chapter 10-19) --&gt; 10th,11th</t>
+  </si>
+  <si>
+    <t>Class VIII --&gt; 17th,18th</t>
+  </si>
+  <si>
+    <t>Geography(India)</t>
+  </si>
+  <si>
+    <t>ncert(Xi)</t>
   </si>
 </sst>
 </file>
@@ -374,7 +389,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,12 +399,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,102 +630,96 @@
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -724,6 +727,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1022,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1037,7 +1046,8 @@
     <col min="7" max="7" width="26.42578125" style="3" customWidth="1"/>
     <col min="8" max="8" width="28.5703125" style="3" customWidth="1"/>
     <col min="9" max="9" width="20.5703125" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="10" max="10" width="9.140625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1">
@@ -1055,10 +1065,10 @@
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>3</v>
@@ -1069,8 +1079,8 @@
       <c r="G2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="23" t="s">
-        <v>53</v>
+      <c r="H2" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1086,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14" t="s">
@@ -1098,12 +1108,10 @@
       <c r="G3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="26" t="s">
-        <v>16</v>
-      </c>
+      <c r="I3" s="3"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1118,13 +1126,13 @@
       <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="34" t="s">
+      <c r="C4" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="32" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="17" t="s">
@@ -1133,12 +1141,10 @@
       <c r="G4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="I4" s="3"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1149,20 +1155,20 @@
     <row r="5" spans="1:15" customFormat="1" ht="75">
       <c r="A5" s="5"/>
       <c r="B5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="5"/>
@@ -1176,20 +1182,20 @@
     <row r="6" spans="1:15" customFormat="1" ht="90">
       <c r="A6" s="5"/>
       <c r="B6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>21</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="1"/>
@@ -1203,18 +1209,18 @@
     <row r="7" spans="1:15" customFormat="1" ht="30">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="36" t="s">
+      <c r="C7" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>24</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1228,16 +1234,16 @@
     <row r="8" spans="1:15" customFormat="1" ht="30">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="36" t="s">
-        <v>23</v>
+      <c r="C8" s="20"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="34" t="s">
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="1"/>
@@ -1251,13 +1257,13 @@
     <row r="9" spans="1:15" customFormat="1" ht="30">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="36" t="s">
-        <v>27</v>
+      <c r="C9" s="20"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="34" t="s">
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="5"/>
@@ -1272,13 +1278,13 @@
     <row r="10" spans="1:15" customFormat="1" ht="30">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="36" t="s">
-        <v>32</v>
+      <c r="C10" s="20"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="34" t="s">
+        <v>30</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="20"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="5"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1292,10 +1298,10 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="42"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1309,12 +1315,12 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="42"/>
+        <v>39</v>
+      </c>
+      <c r="D12" s="40"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="21"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1326,24 +1332,24 @@
     </row>
     <row r="13" spans="1:15" ht="30">
       <c r="A13" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="42"/>
+        <v>41</v>
+      </c>
+      <c r="D13" s="40"/>
       <c r="E13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>52</v>
+      <c r="H13" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1357,17 +1363,17 @@
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="42"/>
+        <v>42</v>
+      </c>
+      <c r="D14" s="40"/>
       <c r="E14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>48</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1382,17 +1388,17 @@
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="42"/>
+        <v>45</v>
+      </c>
+      <c r="D15" s="40"/>
       <c r="E15" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1407,17 +1413,17 @@
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="42"/>
+        <v>54</v>
+      </c>
+      <c r="D16" s="40"/>
       <c r="E16" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>53</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1432,15 +1438,15 @@
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="42"/>
+        <v>63</v>
+      </c>
+      <c r="D17" s="40"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>69</v>
+      <c r="F17" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1455,16 +1461,16 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="42"/>
+        <v>64</v>
+      </c>
+      <c r="D18" s="40"/>
       <c r="E18" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="21"/>
+        <v>56</v>
+      </c>
+      <c r="F18" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="20"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1478,16 +1484,16 @@
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="42"/>
+        <v>65</v>
+      </c>
+      <c r="D19" s="40"/>
       <c r="E19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="21"/>
+        <v>57</v>
+      </c>
+      <c r="F19" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="20"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1501,14 +1507,14 @@
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="42"/>
+        <v>69</v>
+      </c>
+      <c r="D20" s="40"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="21"/>
+      <c r="F20" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="20"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1520,24 +1526,24 @@
     </row>
     <row r="21" spans="1:15" ht="30">
       <c r="A21" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="40"/>
+      <c r="E21" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>74</v>
-      </c>
       <c r="H21" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1551,20 +1557,20 @@
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="42"/>
+        <v>74</v>
+      </c>
+      <c r="D22" s="40"/>
       <c r="E22" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="H22" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -1578,19 +1584,21 @@
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="D23" s="40"/>
+      <c r="E23" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1603,15 +1611,15 @@
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D24" s="42"/>
+        <v>76</v>
+      </c>
+      <c r="D24" s="40"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>90</v>
+      <c r="F24" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>86</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1625,15 +1633,17 @@
     <row r="25" spans="1:15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="C25" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="42"/>
+      <c r="C25" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="40"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="G25" s="21"/>
+      <c r="F25" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>100</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1646,15 +1656,17 @@
     <row r="26" spans="1:15" ht="42">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="21"/>
+      <c r="G26" s="21" t="s">
+        <v>101</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1666,19 +1678,19 @@
     </row>
     <row r="27" spans="1:15" ht="30">
       <c r="A27" s="1"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="42"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="40"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="F27" s="39" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1689,16 +1701,18 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="1"/>
-      <c r="B28" s="21"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="42"/>
+        <v>88</v>
+      </c>
+      <c r="D28" s="40"/>
       <c r="E28" s="1"/>
       <c r="F28" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="G28" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="G28" s="45" t="s">
+        <v>105</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1710,13 +1724,15 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="1"/>
-      <c r="B29" s="21"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="37"/>
+      <c r="F29" s="37" t="s">
+        <v>99</v>
+      </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
@@ -1729,13 +1745,13 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="1"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="27" t="s">
-        <v>96</v>
+      <c r="B30" s="20"/>
+      <c r="C30" s="16" t="s">
+        <v>92</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="37"/>
+      <c r="F30" s="35"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1748,8 +1764,10 @@
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="1"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="1"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1766,7 +1784,9 @@
     <row r="32" spans="1:15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="C32" s="25" t="s">
+        <v>97</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1898,8 +1918,8 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="43"/>
-      <c r="F42" s="40"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="38"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -1913,9 +1933,9 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1"/>

--- a/daily routine.xlsx
+++ b/daily routine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <t>current affairs</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>ncert(Xi)</t>
+  </si>
+  <si>
+    <t>Chapter 5--&gt;13th,15th</t>
   </si>
 </sst>
 </file>
@@ -717,22 +720,24 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1031,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1129,7 +1134,7 @@
       <c r="C4" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="43" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="32" t="s">
@@ -1160,7 +1165,7 @@
       <c r="C5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="33" t="s">
         <v>7</v>
       </c>
@@ -1187,7 +1192,7 @@
       <c r="C6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="42"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="34" t="s">
         <v>8</v>
       </c>
@@ -1212,7 +1217,7 @@
       <c r="C7" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="42"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="34" t="s">
         <v>20</v>
       </c>
@@ -1235,7 +1240,7 @@
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="20"/>
-      <c r="D8" s="42"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="34" t="s">
         <v>21</v>
       </c>
@@ -1258,7 +1263,7 @@
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="20"/>
-      <c r="D9" s="42"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="34" t="s">
         <v>25</v>
       </c>
@@ -1279,7 +1284,7 @@
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="20"/>
-      <c r="D10" s="43"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="34" t="s">
         <v>30</v>
       </c>
@@ -1298,7 +1303,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="40"/>
+      <c r="D11" s="39"/>
       <c r="E11" s="1"/>
       <c r="F11" s="35"/>
       <c r="G11" s="20"/>
@@ -1317,7 +1322,7 @@
       <c r="C12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="40"/>
+      <c r="D12" s="39"/>
       <c r="E12" s="1"/>
       <c r="F12" s="35"/>
       <c r="G12" s="20"/>
@@ -1338,11 +1343,11 @@
       <c r="C13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="40"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="38" t="s">
         <v>38</v>
       </c>
       <c r="G13" s="18" t="s">
@@ -1365,7 +1370,7 @@
       <c r="C14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="D14" s="39"/>
       <c r="E14" s="2" t="s">
         <v>43</v>
       </c>
@@ -1390,7 +1395,7 @@
       <c r="C15" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="40"/>
+      <c r="D15" s="39"/>
       <c r="E15" s="11" t="s">
         <v>44</v>
       </c>
@@ -1415,11 +1420,11 @@
       <c r="C16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="40"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="38" t="s">
         <v>58</v>
       </c>
       <c r="G16" s="21" t="s">
@@ -1440,9 +1445,9 @@
       <c r="C17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="40"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="38" t="s">
         <v>59</v>
       </c>
       <c r="G17" s="21" t="s">
@@ -1463,11 +1468,11 @@
       <c r="C18" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="40"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="39" t="s">
+      <c r="F18" s="38" t="s">
         <v>60</v>
       </c>
       <c r="G18" s="20"/>
@@ -1486,11 +1491,11 @@
       <c r="C19" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="40"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="38" t="s">
         <v>61</v>
       </c>
       <c r="G19" s="20"/>
@@ -1509,9 +1514,9 @@
       <c r="C20" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="40"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="38" t="s">
         <v>66</v>
       </c>
       <c r="G20" s="20"/>
@@ -1532,11 +1537,11 @@
       <c r="C21" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="40"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="38" t="s">
         <v>71</v>
       </c>
       <c r="G21" s="21" t="s">
@@ -1559,11 +1564,11 @@
       <c r="C22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="40"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="38" t="s">
         <v>73</v>
       </c>
       <c r="G22" s="21" t="s">
@@ -1586,11 +1591,11 @@
       <c r="C23" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="40"/>
-      <c r="E23" s="25" t="s">
+      <c r="D23" s="39"/>
+      <c r="E23" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="38" t="s">
         <v>80</v>
       </c>
       <c r="G23" s="21" t="s">
@@ -1607,15 +1612,17 @@
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" ht="30">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="39" t="s">
+      <c r="D24" s="39"/>
+      <c r="E24" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="38" t="s">
         <v>79</v>
       </c>
       <c r="G24" s="21" t="s">
@@ -1636,9 +1643,9 @@
       <c r="C25" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="40"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="38" t="s">
         <v>82</v>
       </c>
       <c r="G25" s="21" t="s">
@@ -1659,9 +1666,9 @@
       <c r="C26" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="40"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="38" t="s">
         <v>94</v>
       </c>
       <c r="G26" s="21" t="s">
@@ -1682,12 +1689,12 @@
       <c r="C27" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="40"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="G27" s="44" t="s">
+      <c r="G27" s="41" t="s">
         <v>104</v>
       </c>
       <c r="H27" s="1"/>
@@ -1705,12 +1712,12 @@
       <c r="C28" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="40"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="39" t="s">
+      <c r="F28" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="G28" s="45" t="s">
+      <c r="G28" s="42" t="s">
         <v>105</v>
       </c>
       <c r="H28" s="1"/>
@@ -1730,7 +1737,7 @@
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="38" t="s">
         <v>99</v>
       </c>
       <c r="G29" s="1"/>
@@ -1918,8 +1925,8 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="38"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="37"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -1933,9 +1940,9 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1"/>
